--- a/Heaps_law_plot.xlsx
+++ b/Heaps_law_plot.xlsx
@@ -49,7 +49,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3254,6 +3262,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of w</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ords in texts</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3316,6 +3387,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of unique words</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -12776,7530 +12902,7531 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>442</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>243</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f>$H$2*POWER(B2,$H$3)</f>
         <v>529.98939139595495</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>840</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>414</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <f t="shared" ref="E3:E66" si="0">$H$2*POWER(B3,$H$3)</f>
         <v>748.67313871749025</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0.53800000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1112</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>528</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <f t="shared" si="0"/>
         <v>870.63149007037953</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>1546</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>673</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>1039.5004964000452</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>1825</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>778</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>1136.5522840420731</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2015</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>844</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>1198.7537336004434</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>2306</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>931</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>1288.9862975656126</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>2635</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1012</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>1384.8730663252502</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>2872</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1093</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>1450.5517321680234</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>3104</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1173</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>1512.4599280383168</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>3292</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>1224</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>1561.0736111359533</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>3603</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>1307</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>1638.7600522192888</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>3914</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>1389</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>1713.4048722729528</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>4379</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="1">
         <v>1540</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>1820.0768096653478</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>4996</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>1690</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>1953.8393989016492</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>5248</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>1754</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>2006.257504495155</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>5470</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="1">
         <v>1813</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>2051.4794797801601</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>5656</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>1854</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>2088.719173035669</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>5934</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>1926</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>2143.3395272501498</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>6589</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="1">
         <v>2077</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>2267.539654650529</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>6948</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="1">
         <v>2161</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <f t="shared" si="0"/>
         <v>2333.1925085611592</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>7262</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="1">
         <v>2229</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="1">
         <f t="shared" si="0"/>
         <v>2389.341659050318</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>7481</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="1">
         <v>2266</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="1">
         <f t="shared" si="0"/>
         <v>2427.8412719739554</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>7829</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="1">
         <v>2330</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1">
         <f t="shared" si="0"/>
         <v>2487.9633661898565</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>8287</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="1">
         <v>2419</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1">
         <f t="shared" si="0"/>
         <v>2565.238586377654</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>8590</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>2502</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="1">
         <f t="shared" si="0"/>
         <v>2615.2807539214587</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>8877</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="1">
         <v>2545</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1">
         <f t="shared" si="0"/>
         <v>2661.9336235745595</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>9096</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>2582</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1">
         <f t="shared" si="0"/>
         <v>2697.0657792183929</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>9508</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="1">
         <v>2673</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="1">
         <f t="shared" si="0"/>
         <v>2762.1163635971843</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>9949</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>2731</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="1">
         <f t="shared" si="0"/>
         <v>2830.3186263250218</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>10260</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="1">
         <v>2776</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="1">
         <f t="shared" si="0"/>
         <v>2877.57913473185</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>10554</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="1">
         <v>2818</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="1">
         <f t="shared" si="0"/>
         <v>2921.651357115788</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>10787</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="1">
         <v>2848</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="1">
         <f t="shared" si="0"/>
         <v>2956.1778651510622</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>11105</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="1">
         <v>2890</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="1">
         <f t="shared" si="0"/>
         <v>3002.7486645696918</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>11318</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="1">
         <v>2922</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="1">
         <f t="shared" si="0"/>
         <v>3033.598414450596</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>11677</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="1">
         <v>2989</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="1">
         <f t="shared" si="0"/>
         <v>3084.9932946587169</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>12107</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="1">
         <v>3072</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="1">
         <f t="shared" si="0"/>
         <v>3145.6011540261961</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>12273</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="1">
         <v>3099</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="1">
         <f t="shared" si="0"/>
         <v>3168.7318613789557</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>12492</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="1">
         <v>3135</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="1">
         <f t="shared" si="0"/>
         <v>3199.027684602554</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>12729</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="1">
         <v>3174</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="1">
         <f t="shared" si="0"/>
         <v>3231.538406196406</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>13061</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="1">
         <v>3232</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="1">
         <f t="shared" si="0"/>
         <v>3276.6142427575846</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="1">
         <v>13298</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="1">
         <v>3276</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="1">
         <f t="shared" si="0"/>
         <v>3308.4687771964336</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>13496</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="1">
         <v>3324</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="1">
         <f t="shared" si="0"/>
         <v>3334.880859379055</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>13912</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="1">
         <v>3371</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="1">
         <f t="shared" si="0"/>
         <v>3389.7961631431208</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>14231</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>3421</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="1">
         <f t="shared" si="0"/>
         <v>3431.3945005973355</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>14536</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="1">
         <v>3455</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="1">
         <f t="shared" si="0"/>
         <v>3470.7662010128061</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>14820</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>3477</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="1">
         <f t="shared" si="0"/>
         <v>3507.0853017814029</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>15098</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="1">
         <v>3510</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="1">
         <f t="shared" si="0"/>
         <v>3542.3269575633512</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>15751</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
         <v>3593</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="1">
         <f t="shared" si="0"/>
         <v>3623.9464400149227</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>16067</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="1">
         <v>3638</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="1">
         <f t="shared" si="0"/>
         <v>3662.8818870132363</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="1">
         <v>16365</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <v>3677</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <f t="shared" si="0"/>
         <v>3699.2766300441504</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>16870</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="1">
         <v>3745</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <f t="shared" si="0"/>
         <v>3760.2603048258111</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="1">
         <v>17121</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="1">
         <v>3774</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <f t="shared" si="0"/>
         <v>3790.2570667173222</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>17385</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="1">
         <v>3798</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <f t="shared" si="0"/>
         <v>3821.5890296849802</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>17764</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="1">
         <v>3833</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="1">
         <f t="shared" si="0"/>
         <v>3866.1876300976246</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>18040</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="1">
         <v>3862</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="1">
         <f t="shared" si="0"/>
         <v>3898.389696505124</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>18483</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="1">
         <v>3918</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="1">
         <f t="shared" si="0"/>
         <v>3949.6042454218714</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>18687</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="1">
         <v>3950</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="1">
         <f t="shared" si="0"/>
         <v>3972.9975085704859</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>18992</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="1">
         <v>4009</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="1">
         <f t="shared" si="0"/>
         <v>4007.7537867212181</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="1">
         <v>19136</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="1">
         <v>4037</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <f t="shared" si="0"/>
         <v>4024.0736523730138</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>19419</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="1">
         <v>4060</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="1">
         <f t="shared" si="0"/>
         <v>4055.9822643022708</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>19752</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="1">
         <v>4100</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="1">
         <f t="shared" si="0"/>
         <v>4093.254566947373</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>20055</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="1">
         <v>4138</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="1">
         <f t="shared" si="0"/>
         <v>4126.9175288173674</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>20356</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="1">
         <v>4172</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <f t="shared" si="0"/>
         <v>4160.1264313348802</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>20717</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="1">
         <v>4210</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="1">
         <f t="shared" si="0"/>
         <v>4199.657271047512</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>21047</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>4241</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <f t="shared" ref="E67:E130" si="1">$H$2*POWER(B67,$H$3)</f>
         <v>4235.5159724193809</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>21346</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="1">
         <v>4279</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <f t="shared" si="1"/>
         <v>4267.7824718716829</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>21737</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="1">
         <v>4341</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="1">
         <f t="shared" si="1"/>
         <v>4309.6637156559646</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="1">
         <v>22294</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="1">
         <v>4418</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="1">
         <f t="shared" si="1"/>
         <v>4368.7293264194086</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>22493</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="1">
         <v>4445</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="1">
         <f t="shared" si="1"/>
         <v>4389.6661097924025</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>22709</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="1">
         <v>4491</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="1">
         <f t="shared" si="1"/>
         <v>4412.2948388311906</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>22995</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="1">
         <v>4514</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="1">
         <f t="shared" si="1"/>
         <v>4442.104513163602</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>23257</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="1">
         <v>4537</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="1">
         <f t="shared" si="1"/>
         <v>4469.2626949261912</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>23517</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="1">
         <v>4573</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="1">
         <f t="shared" si="1"/>
         <v>4496.0741820827097</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>23733</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="1">
         <v>4580</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="1">
         <f t="shared" si="1"/>
         <v>4518.2443644047407</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>24017</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="1">
         <v>4613</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="1">
         <f t="shared" si="1"/>
         <v>4547.2526791661248</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>24478</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="1">
         <v>4651</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="1">
         <f t="shared" si="1"/>
         <v>4594.0048171142544</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>24751</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="1">
         <v>4682</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="1">
         <f t="shared" si="1"/>
         <v>4621.4993389687279</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>25013</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="1">
         <v>4727</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="1">
         <f t="shared" si="1"/>
         <v>4647.7545743305936</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>25213</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="1">
         <v>4757</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="1">
         <f t="shared" si="1"/>
         <v>4667.7113277152412</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>25483</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="1">
         <v>4781</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="1">
         <f t="shared" si="1"/>
         <v>4694.5372976541175</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>25700</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="1">
         <v>4815</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="1">
         <f t="shared" si="1"/>
         <v>4716.0023845608866</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>26238</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="1">
         <v>4853</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="1">
         <f t="shared" si="1"/>
         <v>4768.8616931873312</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>26459</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="1">
         <v>4876</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="1">
         <f t="shared" si="1"/>
         <v>4790.4300063589899</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>26703</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="1">
         <v>4900</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="1">
         <f t="shared" si="1"/>
         <v>4814.1465381484923</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>26898</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>4921</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="1">
         <f t="shared" si="1"/>
         <v>4833.0284302507143</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>27199</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="1">
         <v>4965</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="1">
         <f t="shared" si="1"/>
         <v>4862.0506167533258</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>27400</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="1">
         <v>4984</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="1">
         <f t="shared" si="1"/>
         <v>4881.3483155368031</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>27783</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="1">
         <v>5026</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="1">
         <f t="shared" si="1"/>
         <v>4917.9393937294599</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>28165</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="1">
         <v>5069</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="1">
         <f t="shared" si="1"/>
         <v>4954.203526982712</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>28491</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="1">
         <v>5106</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="1">
         <f t="shared" si="1"/>
         <v>4984.9721271294038</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>28859</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="1">
         <v>5134</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="1">
         <f t="shared" si="1"/>
         <v>5019.5099947037379</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>29188</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="1">
         <v>5167</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="1">
         <f t="shared" si="1"/>
         <v>5050.215718553849</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>29412</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="1">
         <v>5170</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="1">
         <f t="shared" si="1"/>
         <v>5071.0303230633617</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>29692</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="1">
         <v>5206</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="1">
         <f t="shared" si="1"/>
         <v>5096.9458630407107</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="1">
         <v>29835</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="1">
         <v>5226</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="1">
         <f t="shared" si="1"/>
         <v>5110.1377397226779</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>30293</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="1">
         <v>5259</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="1">
         <f t="shared" si="1"/>
         <v>5152.1932572424566</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="1">
         <v>30522</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="1">
         <v>5274</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="1">
         <f t="shared" si="1"/>
         <v>5173.1108332803888</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>30963</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="1">
         <v>5316</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="1">
         <f t="shared" si="1"/>
         <v>5213.1899252887742</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="1">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>31315</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="1">
         <v>5339</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="1">
         <f t="shared" si="1"/>
         <v>5244.9915818437057</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="1">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>31683</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="1">
         <v>5361</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="1">
         <f t="shared" si="1"/>
         <v>5278.0626827329161</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="1">
         <v>102</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1">
         <v>31918</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="1">
         <v>5398</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="1">
         <f t="shared" si="1"/>
         <v>5299.0886661175091</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="A104" s="1">
         <v>103</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="1">
         <v>32413</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="1">
         <v>5441</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="1">
         <f t="shared" si="1"/>
         <v>5343.1447655082648</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="1">
         <v>104</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="1">
         <v>32791</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="1">
         <v>5484</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="1">
         <f t="shared" si="1"/>
         <v>5376.5786527902164</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="1">
         <v>105</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="1">
         <v>33024</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="1">
         <v>5506</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="1">
         <f t="shared" si="1"/>
         <v>5397.0987099382828</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="1">
         <v>106</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="1">
         <v>33336</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="1">
         <v>5534</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="1">
         <f t="shared" si="1"/>
         <v>5424.4717515586499</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="1">
         <v>107</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="1">
         <v>33638</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="1">
         <v>5559</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="1">
         <f t="shared" si="1"/>
         <v>5450.8549463846375</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="1">
         <v>108</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="1">
         <v>33814</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="1">
         <v>5571</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="1">
         <f t="shared" si="1"/>
         <v>5466.1801240467557</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="1">
         <v>109</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1">
         <v>33967</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="1">
         <v>5581</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="1">
         <f t="shared" si="1"/>
         <v>5479.4726625280682</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="1">
         <v>110</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="1">
         <v>34239</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="1">
         <v>5605</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="1">
         <f t="shared" si="1"/>
         <v>5503.0357273832751</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="1">
         <v>111</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="1">
         <v>34786</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="1">
         <v>5654</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="1">
         <f t="shared" si="1"/>
         <v>5550.1614000339323</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="1">
         <v>112</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="1">
         <v>35090</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="1">
         <v>5673</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="1">
         <f t="shared" si="1"/>
         <v>5576.2039247857774</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="1">
         <v>113</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1">
         <v>35470</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="1">
         <v>5697</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="1">
         <f t="shared" si="1"/>
         <v>5608.6109437764471</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="1">
         <v>114</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="1">
         <v>35830</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="1">
         <v>5716</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="1">
         <f t="shared" si="1"/>
         <v>5639.1646932777539</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="1">
         <v>115</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="1">
         <v>36042</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="1">
         <v>5741</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="1">
         <f t="shared" si="1"/>
         <v>5657.091123717717</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="1">
         <v>116</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="1">
         <v>36290</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="1">
         <v>5763</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="1">
         <f t="shared" si="1"/>
         <v>5677.9999524893492</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="1">
         <v>117</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="1">
         <v>36721</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="1">
         <v>5789</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="1">
         <f t="shared" si="1"/>
         <v>5714.1810477984482</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="1">
         <v>118</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="1">
         <v>36959</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="1">
         <v>5806</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="1">
         <f t="shared" si="1"/>
         <v>5734.0763286101537</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="1">
         <v>119</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="1">
         <v>37421</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="1">
         <v>5840</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="1">
         <f t="shared" si="1"/>
         <v>5772.5283556233035</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="1">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="1">
         <v>37736</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="1">
         <v>5872</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="1">
         <f t="shared" si="1"/>
         <v>5798.620012726391</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="1">
         <v>121</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="1">
         <v>38270</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="1">
         <v>5909</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="1">
         <f t="shared" si="1"/>
         <v>5842.6227892030001</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="1">
         <v>122</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="1">
         <v>38671</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="1">
         <v>5949</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="1">
         <f t="shared" si="1"/>
         <v>5875.4798653386297</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="1">
         <v>123</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="1">
         <v>38863</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="1">
         <v>5978</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="1">
         <f t="shared" si="1"/>
         <v>5891.1561906074212</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="1">
         <v>124</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="1">
         <v>39045</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="1">
         <v>5989</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="1">
         <f t="shared" si="1"/>
         <v>5905.9830399424427</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="1">
         <v>125</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="1">
         <v>39296</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="1">
         <v>6013</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="1">
         <f t="shared" si="1"/>
         <v>5926.3787760163805</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="1">
         <v>126</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="1">
         <v>39687</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="1">
         <v>6033</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="1">
         <f t="shared" si="1"/>
         <v>5958.0310961758405</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="1">
         <v>127</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="1">
         <v>40177</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="1">
         <v>6062</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="1">
         <f t="shared" si="1"/>
         <v>5997.4949833603787</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="1">
         <v>128</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="1">
         <v>40497</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="1">
         <v>6083</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="1">
         <f t="shared" si="1"/>
         <v>6023.1473806817075</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="1">
         <v>129</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="1">
         <v>40665</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="1">
         <v>6107</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="1">
         <f t="shared" si="1"/>
         <v>6036.5774005283138</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="1">
         <v>130</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="1">
         <v>41101</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="1">
         <v>6155</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="1">
         <f t="shared" ref="E131:E194" si="2">$H$2*POWER(B131,$H$3)</f>
         <v>6071.3124080333055</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="1">
         <v>131</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="1">
         <v>41557</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="1">
         <v>6187</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="1">
         <f t="shared" si="2"/>
         <v>6107.4591234111303</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="1">
         <v>132</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="1">
         <v>41789</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="1">
         <v>6208</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="1">
         <f t="shared" si="2"/>
         <v>6125.779218906051</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="1">
         <v>133</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="1">
         <v>42078</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="1">
         <v>6236</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="1">
         <f t="shared" si="2"/>
         <v>6148.5347753935948</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="1">
         <v>134</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="1">
         <v>42455</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="1">
         <v>6266</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="1">
         <f t="shared" si="2"/>
         <v>6178.1111071931136</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="1">
         <v>135</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="1">
         <v>42869</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="1">
         <v>6312</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="1">
         <f t="shared" si="2"/>
         <v>6210.4507131422779</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="1">
         <v>136</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="1">
         <v>43422</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="1">
         <v>6361</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="1">
         <f t="shared" si="2"/>
         <v>6253.4240627578765</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="1">
         <v>137</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="1">
         <v>43647</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="1">
         <v>6366</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="1">
         <f t="shared" si="2"/>
         <v>6270.8362773472472</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="1">
         <v>138</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="1">
         <v>43973</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="1">
         <v>6387</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="1">
         <f t="shared" si="2"/>
         <v>6295.9912416419693</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="1">
         <v>139</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="1">
         <v>44300</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="1">
         <v>6414</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="1">
         <f t="shared" si="2"/>
         <v>6321.1369612934595</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="1">
         <v>140</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="1">
         <v>44767</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="1">
         <v>6450</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="1">
         <f t="shared" si="2"/>
         <v>6356.9002279675933</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="1">
         <v>141</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="1">
         <v>45035</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="1">
         <v>6475</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="1">
         <f t="shared" si="2"/>
         <v>6377.3460804308161</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="1">
         <v>142</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="1">
         <v>45387</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="1">
         <v>6496</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="1">
         <f t="shared" si="2"/>
         <v>6404.1151265212266</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="1">
         <v>143</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="1">
         <v>45661</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="1">
         <v>6519</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="1">
         <f t="shared" si="2"/>
         <v>6424.8860691105892</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="1">
         <v>144</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="1">
         <v>45826</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="1">
         <v>6528</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="1">
         <f t="shared" si="2"/>
         <v>6437.3663452861801</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="1">
         <v>145</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="1">
         <v>46097</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="1">
         <v>6558</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="1">
         <f t="shared" si="2"/>
         <v>6457.8192911839287</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="1">
         <v>146</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="1">
         <v>46998</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="1">
         <v>6636</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="1">
         <f t="shared" si="2"/>
         <v>6525.4234671313961</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="1">
         <v>147</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="1">
         <v>47215</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="1">
         <v>6650</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="1">
         <f t="shared" si="2"/>
         <v>6541.6157811534686</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="1">
         <v>148</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="1">
         <v>47482</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="1">
         <v>6675</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="1">
         <f t="shared" si="2"/>
         <v>6561.4919393807404</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="1">
         <v>149</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="1">
         <v>48095</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="1">
         <v>6716</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="1">
         <f t="shared" si="2"/>
         <v>6606.9307909787785</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="1">
         <v>150</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="1">
         <v>48473</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="1">
         <v>6756</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="1">
         <f t="shared" si="2"/>
         <v>6634.8168872797351</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="1">
         <v>151</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="1">
         <v>48766</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="1">
         <v>6766</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="1">
         <f t="shared" si="2"/>
         <v>6656.363246196408</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="1">
         <v>152</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="1">
         <v>49108</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="1">
         <v>6779</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="1">
         <f t="shared" si="2"/>
         <v>6681.4374136715105</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="1">
         <v>153</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="1">
         <v>49525</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="1">
         <v>6795</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="1">
         <f t="shared" si="2"/>
         <v>6711.9014035239688</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="1">
         <v>154</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="1">
         <v>49898</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="1">
         <v>6829</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="1">
         <f t="shared" si="2"/>
         <v>6739.0507086406415</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="1">
         <v>155</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="1">
         <v>50184</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="1">
         <v>6855</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="1">
         <f t="shared" si="2"/>
         <v>6759.8041489857933</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="1">
         <v>156</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="1">
         <v>50476</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="1">
         <v>6870</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="1">
         <f t="shared" si="2"/>
         <v>6780.9366788966609</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="1">
         <v>157</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="1">
         <v>50751</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="1">
         <v>6884</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="1">
         <f t="shared" si="2"/>
         <v>6800.7873074475247</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="1">
         <v>158</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="1">
         <v>50922</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="1">
         <v>6897</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="1">
         <f t="shared" si="2"/>
         <v>6813.1057378222449</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="1">
         <v>159</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="1">
         <v>51576</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="1">
         <v>6942</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="1">
         <f t="shared" si="2"/>
         <v>6860.0429571452878</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="1">
         <v>160</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="1">
         <v>51974</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="1">
         <v>6956</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="1">
         <f t="shared" si="2"/>
         <v>6888.4726767232551</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="1">
         <v>161</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="1">
         <v>52350</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="1">
         <v>6994</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="1">
         <f t="shared" si="2"/>
         <v>6915.2386533798999</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="1">
         <v>162</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="1">
         <v>52656</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="1">
         <v>7011</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="1">
         <f t="shared" si="2"/>
         <v>6936.9561143543724</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="1">
         <v>53107</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="1">
         <v>7041</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="1">
         <f t="shared" si="2"/>
         <v>6968.8585148334951</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="1">
         <v>164</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="1">
         <v>53531</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="1">
         <v>7050</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="1">
         <f t="shared" si="2"/>
         <v>6998.7370580526258</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="1">
         <v>165</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="1">
         <v>53907</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="1">
         <v>7066</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="1">
         <f t="shared" si="2"/>
         <v>7025.1417810760531</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="1">
         <v>166</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="1">
         <v>54186</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="1">
         <v>7083</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="1">
         <f t="shared" si="2"/>
         <v>7044.6796944987618</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="1">
         <v>167</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="1">
         <v>54413</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="1">
         <v>7108</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="1">
         <f t="shared" si="2"/>
         <v>7060.5418669963865</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="1">
         <v>168</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="1">
         <v>54646</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="1">
         <v>7120</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="1">
         <f t="shared" si="2"/>
         <v>7076.7915410988135</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="1">
         <v>169</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="1">
         <v>54830</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="1">
         <v>7128</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="1">
         <f t="shared" si="2"/>
         <v>7089.6012939013244</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="1">
         <v>170</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="1">
         <v>55062</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="1">
         <v>7142</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="1">
         <f t="shared" si="2"/>
         <v>7105.7244479818019</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="1">
         <v>171</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="1">
         <v>55295</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="1">
         <v>7160</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="1">
         <f t="shared" si="2"/>
         <v>7121.8855406679004</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="1">
         <v>172</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="1">
         <v>55725</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="1">
         <v>7176</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="1">
         <f t="shared" si="2"/>
         <v>7151.6283476899534</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="1">
         <v>173</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="1">
         <v>56104</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="1">
         <v>7197</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="1">
         <f t="shared" si="2"/>
         <v>7177.7557209034221</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="1">
         <v>174</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="1">
         <v>56388</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="1">
         <v>7216</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="1">
         <f t="shared" si="2"/>
         <v>7197.2806103789098</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="1">
         <v>175</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="1">
         <v>56615</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="1">
         <v>7224</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="1">
         <f t="shared" si="2"/>
         <v>7212.8541243264144</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="1">
         <v>176</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="1">
         <v>56914</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="1">
         <v>7249</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="1">
         <f t="shared" si="2"/>
         <v>7233.323297932312</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="1">
         <v>177</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="1">
         <v>57271</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="1">
         <v>7265</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="1">
         <f t="shared" si="2"/>
         <v>7257.6981191730183</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="1">
         <v>178</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="1">
         <v>57542</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="1">
         <v>7288</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="1">
         <f t="shared" si="2"/>
         <v>7276.1542993190178</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="1">
         <v>179</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="1">
         <v>57767</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="1">
         <v>7311</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="1">
         <f t="shared" si="2"/>
         <v>7291.447205791701</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="1">
         <v>180</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="1">
         <v>58136</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="1">
         <v>7325</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="1">
         <f t="shared" si="2"/>
         <v>7316.4681243983532</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="1">
         <v>181</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="1">
         <v>58618</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="1">
         <v>7355</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="1">
         <f t="shared" si="2"/>
         <v>7349.0410257337817</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="1">
         <v>182</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="1">
         <v>58878</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="1">
         <v>7373</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="1">
         <f t="shared" si="2"/>
         <v>7366.560095933859</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="1">
         <v>183</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="1">
         <v>59704</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="1">
         <v>7453</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="1">
         <f t="shared" si="2"/>
         <v>7421.9810345422557</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="1">
         <v>184</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="1">
         <v>60069</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="1">
         <v>7477</v>
       </c>
-      <c r="E185">
+      <c r="E185" s="1">
         <f t="shared" si="2"/>
         <v>7446.3579989517384</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="1">
         <v>185</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="1">
         <v>60377</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="1">
         <v>7509</v>
       </c>
-      <c r="E186">
+      <c r="E186" s="1">
         <f t="shared" si="2"/>
         <v>7466.8749624208103</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="1">
         <v>186</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="1">
         <v>60600</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="1">
         <v>7523</v>
       </c>
-      <c r="E187">
+      <c r="E187" s="1">
         <f t="shared" si="2"/>
         <v>7481.6996128041774</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="1">
         <v>187</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="1">
         <v>60913</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="1">
         <v>7559</v>
       </c>
-      <c r="E188">
+      <c r="E188" s="1">
         <f t="shared" si="2"/>
         <v>7502.4648589704684</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="1">
         <v>188</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="1">
         <v>61329</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="1">
         <v>7570</v>
       </c>
-      <c r="E189">
+      <c r="E189" s="1">
         <f t="shared" si="2"/>
         <v>7529.9872511954181</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="1">
         <v>189</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="1">
         <v>61757</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="1">
         <v>7590</v>
       </c>
-      <c r="E190">
+      <c r="E190" s="1">
         <f t="shared" si="2"/>
         <v>7558.2136900374353</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="1">
         <v>190</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="1">
         <v>62075</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="1">
         <v>7596</v>
       </c>
-      <c r="E191">
+      <c r="E191" s="1">
         <f t="shared" si="2"/>
         <v>7579.1271927884663</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="1">
         <v>191</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="1">
         <v>62576</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="1">
         <v>7635</v>
       </c>
-      <c r="E192">
+      <c r="E192" s="1">
         <f t="shared" si="2"/>
         <v>7611.9756669215403</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="1">
         <v>192</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="1">
         <v>62982</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="1">
         <v>7642</v>
       </c>
-      <c r="E193">
+      <c r="E193" s="1">
         <f t="shared" si="2"/>
         <v>7638.5063582149323</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="1">
         <v>193</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="1">
         <v>63289</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="1">
         <v>7671</v>
       </c>
-      <c r="E194">
+      <c r="E194" s="1">
         <f t="shared" si="2"/>
         <v>7658.5153184637529</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="1">
         <v>194</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="1">
         <v>63480</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="1">
         <v>7679</v>
       </c>
-      <c r="E195">
+      <c r="E195" s="1">
         <f t="shared" ref="E195:E258" si="3">$H$2*POWER(B195,$H$3)</f>
         <v>7670.9412676061047</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="1">
         <v>195</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="1">
         <v>63925</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="1">
         <v>7695</v>
       </c>
-      <c r="E196">
+      <c r="E196" s="1">
         <f t="shared" si="3"/>
         <v>7699.8249517141076</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="1">
         <v>196</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="1">
         <v>64235</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="1">
         <v>7699</v>
       </c>
-      <c r="E197">
+      <c r="E197" s="1">
         <f t="shared" si="3"/>
         <v>7719.8913050312931</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="1">
         <v>197</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="1">
         <v>64517</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="1">
         <v>7712</v>
       </c>
-      <c r="E198">
+      <c r="E198" s="1">
         <f t="shared" si="3"/>
         <v>7738.1063870694998</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="1">
         <v>198</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="1">
         <v>64804</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="1">
         <v>7736</v>
       </c>
-      <c r="E199">
+      <c r="E199" s="1">
         <f t="shared" si="3"/>
         <v>7756.6067038042529</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="1">
         <v>199</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="1">
         <v>65150</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="1">
         <v>7763</v>
       </c>
-      <c r="E200">
+      <c r="E200" s="1">
         <f t="shared" si="3"/>
         <v>7778.8599696200563</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="1">
         <v>200</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="1">
         <v>65809</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="1">
         <v>7814</v>
       </c>
-      <c r="E201">
+      <c r="E201" s="1">
         <f t="shared" si="3"/>
         <v>7821.0935839951426</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="1">
         <v>201</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="1">
         <v>66100</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="1">
         <v>7839</v>
       </c>
-      <c r="E202">
+      <c r="E202" s="1">
         <f t="shared" si="3"/>
         <v>7839.6808096106706</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="1">
         <v>202</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="1">
         <v>66460</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="1">
         <v>7853</v>
       </c>
-      <c r="E203">
+      <c r="E203" s="1">
         <f t="shared" si="3"/>
         <v>7862.62308126261</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="1">
         <v>203</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="1">
         <v>66754</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="1">
         <v>7877</v>
       </c>
-      <c r="E204">
+      <c r="E204" s="1">
         <f t="shared" si="3"/>
         <v>7881.3167119458831</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="1">
         <v>204</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="1">
         <v>67243</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="1">
         <v>7914</v>
       </c>
-      <c r="E205">
+      <c r="E205" s="1">
         <f t="shared" si="3"/>
         <v>7912.3251374430447</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="1">
         <v>205</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="1">
         <v>67518</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="1">
         <v>7942</v>
       </c>
-      <c r="E206">
+      <c r="E206" s="1">
         <f t="shared" si="3"/>
         <v>7929.7176511697635</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="1">
         <v>206</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="1">
         <v>67835</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="1">
         <v>7963</v>
       </c>
-      <c r="E207">
+      <c r="E207" s="1">
         <f t="shared" si="3"/>
         <v>7949.7259191910925</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="1">
         <v>207</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="1">
         <v>68187</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="1">
         <v>7991</v>
       </c>
-      <c r="E208">
+      <c r="E208" s="1">
         <f t="shared" si="3"/>
         <v>7971.8927542650745</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="1">
         <v>208</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="1">
         <v>68489</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="1">
         <v>8015</v>
       </c>
-      <c r="E209">
+      <c r="E209" s="1">
         <f t="shared" si="3"/>
         <v>7990.8687898809967</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="1">
         <v>209</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="1">
         <v>68984</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="1">
         <v>8046</v>
       </c>
-      <c r="E210">
+      <c r="E210" s="1">
         <f t="shared" si="3"/>
         <v>8021.8884845472712</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="1">
         <v>210</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="1">
         <v>69392</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="1">
         <v>8069</v>
       </c>
-      <c r="E211">
+      <c r="E211" s="1">
         <f t="shared" si="3"/>
         <v>8047.3790013509542</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="1">
         <v>211</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="1">
         <v>69630</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="1">
         <v>8095</v>
       </c>
-      <c r="E212">
+      <c r="E212" s="1">
         <f t="shared" si="3"/>
         <v>8062.2164981357982</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="1">
         <v>212</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="1">
         <v>69917</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="1">
         <v>8106</v>
       </c>
-      <c r="E213">
+      <c r="E213" s="1">
         <f t="shared" si="3"/>
         <v>8080.0776457537986</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="A214" s="1">
         <v>213</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="1">
         <v>70348</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="1">
         <v>8177</v>
       </c>
-      <c r="E214">
+      <c r="E214" s="1">
         <f t="shared" si="3"/>
         <v>8106.8369783242906</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="A215" s="1">
         <v>214</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="1">
         <v>70648</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="1">
         <v>8193</v>
       </c>
-      <c r="E215">
+      <c r="E215" s="1">
         <f t="shared" si="3"/>
         <v>8125.4182771375563</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="1">
         <v>215</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="1">
         <v>71175</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="1">
         <v>8225</v>
       </c>
-      <c r="E216">
+      <c r="E216" s="1">
         <f t="shared" si="3"/>
         <v>8157.971385140464</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="A217" s="1">
         <v>216</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="1">
         <v>71545</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="1">
         <v>8252</v>
       </c>
-      <c r="E217">
+      <c r="E217" s="1">
         <f t="shared" si="3"/>
         <v>8180.760013571381</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="A218" s="1">
         <v>217</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="1">
         <v>72059</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="1">
         <v>8285</v>
       </c>
-      <c r="E218">
+      <c r="E218" s="1">
         <f t="shared" si="3"/>
         <v>8212.3275677524871</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="1">
         <v>218</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="1">
         <v>72274</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="1">
         <v>8287</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="1">
         <f t="shared" si="3"/>
         <v>8225.501025192083</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="A220" s="1">
         <v>219</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="1">
         <v>72542</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="1">
         <v>8298</v>
       </c>
-      <c r="E220">
+      <c r="E220" s="1">
         <f t="shared" si="3"/>
         <v>8241.8965697509029</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="A221" s="1">
         <v>220</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="1">
         <v>72877</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="1">
         <v>8316</v>
       </c>
-      <c r="E221">
+      <c r="E221" s="1">
         <f t="shared" si="3"/>
         <v>8262.3516987530984</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="1">
         <v>221</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="1">
         <v>73214</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="1">
         <v>8328</v>
       </c>
-      <c r="E222">
+      <c r="E222" s="1">
         <f t="shared" si="3"/>
         <v>8282.8851641644014</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="A223" s="1">
         <v>222</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="1">
         <v>73682</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="1">
         <v>8366</v>
       </c>
-      <c r="E223">
+      <c r="E223" s="1">
         <f t="shared" si="3"/>
         <v>8311.3281950236596</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="A224" s="1">
         <v>223</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="1">
         <v>73957</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="1">
         <v>8394</v>
       </c>
-      <c r="E224">
+      <c r="E224" s="1">
         <f t="shared" si="3"/>
         <v>8328.0025900861965</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="A225" s="1">
         <v>224</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="1">
         <v>74504</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="1">
         <v>8419</v>
       </c>
-      <c r="E225">
+      <c r="E225" s="1">
         <f t="shared" si="3"/>
         <v>8361.0845475646165</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="A226" s="1">
         <v>225</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="1">
         <v>74739</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="1">
         <v>8431</v>
       </c>
-      <c r="E226">
+      <c r="E226" s="1">
         <f t="shared" si="3"/>
         <v>8375.2626169858158</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="A227" s="1">
         <v>226</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="1">
         <v>75047</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="1">
         <v>8480</v>
       </c>
-      <c r="E227">
+      <c r="E227" s="1">
         <f t="shared" si="3"/>
         <v>8393.8137887877456</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="1">
         <v>227</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="1">
         <v>75240</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="1">
         <v>8494</v>
       </c>
-      <c r="E228">
+      <c r="E228" s="1">
         <f t="shared" si="3"/>
         <v>8405.4204638211668</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="A229" s="1">
         <v>228</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="1">
         <v>75467</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="1">
         <v>8507</v>
       </c>
-      <c r="E229">
+      <c r="E229" s="1">
         <f t="shared" si="3"/>
         <v>8419.0542492652403</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="1">
         <v>229</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="1">
         <v>75936</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="1">
         <v>8509</v>
       </c>
-      <c r="E230">
+      <c r="E230" s="1">
         <f t="shared" si="3"/>
         <v>8447.1628554657418</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="1">
         <v>230</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="1">
         <v>76187</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="1">
         <v>8513</v>
       </c>
-      <c r="E231">
+      <c r="E231" s="1">
         <f t="shared" si="3"/>
         <v>8462.1731062626131</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="A232" s="1">
         <v>231</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="1">
         <v>76504</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="1">
         <v>8526</v>
       </c>
-      <c r="E232">
+      <c r="E232" s="1">
         <f t="shared" si="3"/>
         <v>8481.0976663682904</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="A233" s="1">
         <v>232</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="1">
         <v>76769</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="1">
         <v>8542</v>
       </c>
-      <c r="E233">
+      <c r="E233" s="1">
         <f t="shared" si="3"/>
         <v>8496.8900983647181</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="A234" s="1">
         <v>233</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="1">
         <v>76938</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="1">
         <v>8557</v>
       </c>
-      <c r="E234">
+      <c r="E234" s="1">
         <f t="shared" si="3"/>
         <v>8506.9483484244247</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="A235" s="1">
         <v>234</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="1">
         <v>77120</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="1">
         <v>8569</v>
       </c>
-      <c r="E235">
+      <c r="E235" s="1">
         <f t="shared" si="3"/>
         <v>8517.7689014972075</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="A236" s="1">
         <v>235</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="1">
         <v>77333</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="1">
         <v>8586</v>
       </c>
-      <c r="E236">
+      <c r="E236" s="1">
         <f t="shared" si="3"/>
         <v>8530.4175438513303</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="A237" s="1">
         <v>236</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="1">
         <v>77743</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="1">
         <v>8623</v>
       </c>
-      <c r="E237">
+      <c r="E237" s="1">
         <f t="shared" si="3"/>
         <v>8554.7194716949161</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="1">
         <v>77935</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="1">
         <v>8636</v>
       </c>
-      <c r="E238">
+      <c r="E238" s="1">
         <f t="shared" si="3"/>
         <v>8566.0795270046401</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="A239" s="1">
         <v>238</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="1">
         <v>78256</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="1">
         <v>8650</v>
       </c>
-      <c r="E239">
+      <c r="E239" s="1">
         <f t="shared" si="3"/>
         <v>8585.0432801640236</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="1">
         <v>239</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="1">
         <v>78502</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="1">
         <v>8660</v>
       </c>
-      <c r="E240">
+      <c r="E240" s="1">
         <f t="shared" si="3"/>
         <v>8599.5519376775574</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="A241" s="1">
         <v>240</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="1">
         <v>78802</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="1">
         <v>8660</v>
       </c>
-      <c r="E241">
+      <c r="E241" s="1">
         <f t="shared" si="3"/>
         <v>8617.2170250525032</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="A242" s="1">
         <v>241</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="1">
         <v>79592</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="1">
         <v>8699</v>
       </c>
-      <c r="E242">
+      <c r="E242" s="1">
         <f t="shared" si="3"/>
         <v>8663.5870303187421</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="A243" s="1">
         <v>242</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="1">
         <v>80228</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="1">
         <v>8724</v>
       </c>
-      <c r="E243">
+      <c r="E243" s="1">
         <f t="shared" si="3"/>
         <v>8700.7635250423973</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="A244" s="1">
         <v>243</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="1">
         <v>81121</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="1">
         <v>8847</v>
       </c>
-      <c r="E244">
+      <c r="E244" s="1">
         <f t="shared" si="3"/>
         <v>8752.7335667477346</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="A245" s="1">
         <v>244</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="1">
         <v>81640</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="1">
         <v>8895</v>
       </c>
-      <c r="E245">
+      <c r="E245" s="1">
         <f t="shared" si="3"/>
         <v>8782.8164683258201</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="A246" s="1">
         <v>245</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="1">
         <v>82458</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="1">
         <v>8971</v>
       </c>
-      <c r="E246">
+      <c r="E246" s="1">
         <f t="shared" si="3"/>
         <v>8830.0515780807618</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="A247" s="1">
         <v>246</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="1">
         <v>82856</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="1">
         <v>8987</v>
       </c>
-      <c r="E247">
+      <c r="E247" s="1">
         <f t="shared" si="3"/>
         <v>8852.9556360240476</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="A248" s="1">
         <v>247</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="1">
         <v>83130</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="1">
         <v>8994</v>
       </c>
-      <c r="E248">
+      <c r="E248" s="1">
         <f t="shared" si="3"/>
         <v>8868.6942256368329</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="A249" s="1">
         <v>248</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="1">
         <v>83470</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="1">
         <v>9005</v>
       </c>
-      <c r="E249">
+      <c r="E249" s="1">
         <f t="shared" si="3"/>
         <v>8888.190579614813</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="A250" s="1">
         <v>249</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="1">
         <v>84094</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="1">
         <v>9029</v>
       </c>
-      <c r="E250">
+      <c r="E250" s="1">
         <f t="shared" si="3"/>
         <v>8923.8769110623234</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="A251" s="1">
         <v>250</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="1">
         <v>84398</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="1">
         <v>9047</v>
       </c>
-      <c r="E251">
+      <c r="E251" s="1">
         <f t="shared" si="3"/>
         <v>8941.2182346509708</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="A252" s="1">
         <v>251</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="1">
         <v>84712</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="1">
         <v>9050</v>
       </c>
-      <c r="E252">
+      <c r="E252" s="1">
         <f t="shared" si="3"/>
         <v>8959.0997258874122</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="A253" s="1">
         <v>252</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="1">
         <v>85332</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="1">
         <v>9080</v>
       </c>
-      <c r="E253">
+      <c r="E253" s="1">
         <f t="shared" si="3"/>
         <v>8994.3174382783491</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="A254" s="1">
         <v>253</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="1">
         <v>85623</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="1">
         <v>9080</v>
       </c>
-      <c r="E254">
+      <c r="E254" s="1">
         <f t="shared" si="3"/>
         <v>9010.8062692099338</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="A255" s="1">
         <v>254</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="1">
         <v>85932</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="1">
         <v>9115</v>
       </c>
-      <c r="E255">
+      <c r="E255" s="1">
         <f t="shared" si="3"/>
         <v>9028.2867110481056</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="A256" s="1">
         <v>255</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="1">
         <v>86111</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="1">
         <v>9121</v>
       </c>
-      <c r="E256">
+      <c r="E256" s="1">
         <f t="shared" si="3"/>
         <v>9038.399639065985</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="A257" s="1">
         <v>256</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="1">
         <v>86328</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="1">
         <v>9128</v>
       </c>
-      <c r="E257">
+      <c r="E257" s="1">
         <f t="shared" si="3"/>
         <v>9050.646431059733</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258">
+      <c r="A258" s="1">
         <v>257</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="1">
         <v>86762</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="1">
         <v>9165</v>
       </c>
-      <c r="E258">
+      <c r="E258" s="1">
         <f t="shared" si="3"/>
         <v>9075.0974246839305</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259">
+      <c r="A259" s="1">
         <v>258</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="1">
         <v>87201</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="1">
         <v>9181</v>
       </c>
-      <c r="E259">
+      <c r="E259" s="1">
         <f t="shared" ref="E259:E322" si="4">$H$2*POWER(B259,$H$3)</f>
         <v>9099.7726926928972</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260">
+      <c r="A260" s="1">
         <v>259</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="1">
         <v>87433</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="1">
         <v>9190</v>
       </c>
-      <c r="E260">
+      <c r="E260" s="1">
         <f t="shared" si="4"/>
         <v>9112.7897463229892</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="A261" s="1">
         <v>260</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="1">
         <v>87941</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="1">
         <v>9226</v>
       </c>
-      <c r="E261">
+      <c r="E261" s="1">
         <f t="shared" si="4"/>
         <v>9141.2369987107195</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262">
+      <c r="A262" s="1">
         <v>261</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="1">
         <v>88678</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="1">
         <v>9288</v>
       </c>
-      <c r="E262">
+      <c r="E262" s="1">
         <f t="shared" si="4"/>
         <v>9182.3732942789284</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263">
+      <c r="A263" s="1">
         <v>262</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="1">
         <v>89263</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="1">
         <v>9327</v>
       </c>
-      <c r="E263">
+      <c r="E263" s="1">
         <f t="shared" si="4"/>
         <v>9214.9132531298346</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="A264" s="1">
         <v>263</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="1">
         <v>89597</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="1">
         <v>9344</v>
       </c>
-      <c r="E264">
+      <c r="E264" s="1">
         <f t="shared" si="4"/>
         <v>9233.4474450596226</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265">
+      <c r="A265" s="1">
         <v>264</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="1">
         <v>90002</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="1">
         <v>9355</v>
       </c>
-      <c r="E265">
+      <c r="E265" s="1">
         <f t="shared" si="4"/>
         <v>9255.8787734186062</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="A266" s="1">
         <v>265</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="1">
         <v>90304</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="1">
         <v>9362</v>
       </c>
-      <c r="E266">
+      <c r="E266" s="1">
         <f t="shared" si="4"/>
         <v>9272.5750068036014</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="A267" s="1">
         <v>266</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="1">
         <v>91009</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="1">
         <v>9427</v>
       </c>
-      <c r="E267">
+      <c r="E267" s="1">
         <f t="shared" si="4"/>
         <v>9311.4512073190544</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268">
+      <c r="A268" s="1">
         <v>267</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="1">
         <v>91205</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="1">
         <v>9446</v>
       </c>
-      <c r="E268">
+      <c r="E268" s="1">
         <f t="shared" si="4"/>
         <v>9322.2346017874916</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269">
+      <c r="A269" s="1">
         <v>268</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="1">
         <v>92014</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="1">
         <v>9494</v>
       </c>
-      <c r="E269">
+      <c r="E269" s="1">
         <f t="shared" si="4"/>
         <v>9366.6307435239614</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270">
+      <c r="A270" s="1">
         <v>269</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="1">
         <v>92448</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="1">
         <v>9515</v>
       </c>
-      <c r="E270">
+      <c r="E270" s="1">
         <f t="shared" si="4"/>
         <v>9390.3733905270346</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271">
+      <c r="A271" s="1">
         <v>270</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="1">
         <v>92955</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="1">
         <v>9543</v>
       </c>
-      <c r="E271">
+      <c r="E271" s="1">
         <f t="shared" si="4"/>
         <v>9418.0444961721914</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272">
+      <c r="A272" s="1">
         <v>271</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="1">
         <v>93432</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="1">
         <v>9568</v>
       </c>
-      <c r="E272">
+      <c r="E272" s="1">
         <f t="shared" si="4"/>
         <v>9444.0146673953113</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A273">
+      <c r="A273" s="1">
         <v>272</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="1">
         <v>93824</v>
       </c>
-      <c r="C273">
+      <c r="C273" s="1">
         <v>9595</v>
       </c>
-      <c r="E273">
+      <c r="E273" s="1">
         <f t="shared" si="4"/>
         <v>9465.3112097194225</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A274">
+      <c r="A274" s="1">
         <v>273</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="1">
         <v>94336</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="1">
         <v>9615</v>
       </c>
-      <c r="E274">
+      <c r="E274" s="1">
         <f t="shared" si="4"/>
         <v>9493.0652898396038</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A275">
+      <c r="A275" s="1">
         <v>274</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="1">
         <v>94611</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="1">
         <v>9628</v>
       </c>
-      <c r="E275">
+      <c r="E275" s="1">
         <f t="shared" si="4"/>
         <v>9507.943539649139</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="A276" s="1">
         <v>275</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="1">
         <v>94912</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="1">
         <v>9645</v>
       </c>
-      <c r="E276">
+      <c r="E276" s="1">
         <f t="shared" si="4"/>
         <v>9524.2055764724391</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A277">
+      <c r="A277" s="1">
         <v>276</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="1">
         <v>95094</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="1">
         <v>9656</v>
       </c>
-      <c r="E277">
+      <c r="E277" s="1">
         <f t="shared" si="4"/>
         <v>9534.0268784027958</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A278">
+      <c r="A278" s="1">
         <v>277</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="1">
         <v>95970</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="1">
         <v>9720</v>
       </c>
-      <c r="E278">
+      <c r="E278" s="1">
         <f t="shared" si="4"/>
         <v>9581.177630801636</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="A279" s="1">
         <v>278</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="1">
         <v>96182</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="1">
         <v>9723</v>
       </c>
-      <c r="E279">
+      <c r="E279" s="1">
         <f t="shared" si="4"/>
         <v>9592.5586223738883</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A280">
+      <c r="A280" s="1">
         <v>279</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="1">
         <v>96621</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="1">
         <v>9735</v>
       </c>
-      <c r="E280">
+      <c r="E280" s="1">
         <f t="shared" si="4"/>
         <v>9616.0890778232333</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A281">
+      <c r="A281" s="1">
         <v>280</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="1">
         <v>96797</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="1">
         <v>9746</v>
       </c>
-      <c r="E281">
+      <c r="E281" s="1">
         <f t="shared" si="4"/>
         <v>9625.5088256212257</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="A282" s="1">
         <v>281</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="1">
         <v>97012</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="1">
         <v>9758</v>
       </c>
-      <c r="E282">
+      <c r="E282" s="1">
         <f t="shared" si="4"/>
         <v>9637.0051732815245</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A283">
+      <c r="A283" s="1">
         <v>282</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="1">
         <v>97343</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="1">
         <v>9775</v>
       </c>
-      <c r="E283">
+      <c r="E283" s="1">
         <f t="shared" si="4"/>
         <v>9654.6812160326335</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A284">
+      <c r="A284" s="1">
         <v>283</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="1">
         <v>97504</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="1">
         <v>9781</v>
       </c>
-      <c r="E284">
+      <c r="E284" s="1">
         <f t="shared" si="4"/>
         <v>9663.2688898118467</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A285">
+      <c r="A285" s="1">
         <v>284</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="1">
         <v>98259</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="1">
         <v>9838</v>
       </c>
-      <c r="E285">
+      <c r="E285" s="1">
         <f t="shared" si="4"/>
         <v>9703.4531766797627</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A286">
+      <c r="A286" s="1">
         <v>285</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="1">
         <v>98511</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="1">
         <v>9846</v>
       </c>
-      <c r="E286">
+      <c r="E286" s="1">
         <f t="shared" si="4"/>
         <v>9716.8339047591126</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A287">
+      <c r="A287" s="1">
         <v>286</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="1">
         <v>98894</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="1">
         <v>9864</v>
       </c>
-      <c r="E287">
+      <c r="E287" s="1">
         <f t="shared" si="4"/>
         <v>9737.1402433171934</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A288">
+      <c r="A288" s="1">
         <v>287</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="1">
         <v>99810</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="1">
         <v>9951</v>
       </c>
-      <c r="E288">
+      <c r="E288" s="1">
         <f t="shared" si="4"/>
         <v>9785.5589503893098</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A289">
+      <c r="A289" s="1">
         <v>288</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="1">
         <v>100059</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="1">
         <v>9966</v>
       </c>
-      <c r="E289">
+      <c r="E289" s="1">
         <f t="shared" si="4"/>
         <v>9798.685275579488</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A290">
+      <c r="A290" s="1">
         <v>289</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="1">
         <v>100388</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="1">
         <v>9970</v>
       </c>
-      <c r="E290">
+      <c r="E290" s="1">
         <f t="shared" si="4"/>
         <v>9816.0057730690078</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A291">
+      <c r="A291" s="1">
         <v>290</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="1">
         <v>100898</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="1">
         <v>9986</v>
       </c>
-      <c r="E291">
+      <c r="E291" s="1">
         <f t="shared" si="4"/>
         <v>9842.803425511589</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A292">
+      <c r="A292" s="1">
         <v>291</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="1">
         <v>101340</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="1">
         <v>10006</v>
       </c>
-      <c r="E292">
+      <c r="E292" s="1">
         <f t="shared" si="4"/>
         <v>9865.977480667545</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A293">
+      <c r="A293" s="1">
         <v>292</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="1">
         <v>101730</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="1">
         <v>10014</v>
       </c>
-      <c r="E293">
+      <c r="E293" s="1">
         <f t="shared" si="4"/>
         <v>9886.3864264280874</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A294">
+      <c r="A294" s="1">
         <v>293</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="1">
         <v>102122</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="1">
         <v>10026</v>
       </c>
-      <c r="E294">
+      <c r="E294" s="1">
         <f t="shared" si="4"/>
         <v>9906.8636399064108</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A295">
+      <c r="A295" s="1">
         <v>294</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="1">
         <v>102641</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="1">
         <v>10050</v>
       </c>
-      <c r="E295">
+      <c r="E295" s="1">
         <f t="shared" si="4"/>
         <v>9933.9192677046758</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A296">
+      <c r="A296" s="1">
         <v>295</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="1">
         <v>102972</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="1">
         <v>10057</v>
       </c>
-      <c r="E296">
+      <c r="E296" s="1">
         <f t="shared" si="4"/>
         <v>9951.141398634576</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="A297" s="1">
         <v>296</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="1">
         <v>103501</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="1">
         <v>10085</v>
       </c>
-      <c r="E297">
+      <c r="E297" s="1">
         <f t="shared" si="4"/>
         <v>9978.6125772376527</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A298">
+      <c r="A298" s="1">
         <v>297</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="1">
         <v>103793</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="1">
         <v>10098</v>
       </c>
-      <c r="E298">
+      <c r="E298" s="1">
         <f t="shared" si="4"/>
         <v>9993.7484687996603</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A299">
+      <c r="A299" s="1">
         <v>298</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="1">
         <v>104048</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="1">
         <v>10115</v>
       </c>
-      <c r="E299">
+      <c r="E299" s="1">
         <f t="shared" si="4"/>
         <v>10006.950372429385</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A300">
+      <c r="A300" s="1">
         <v>299</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="1">
         <v>104543</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="1">
         <v>10126</v>
       </c>
-      <c r="E300">
+      <c r="E300" s="1">
         <f t="shared" si="4"/>
         <v>10032.53499720712</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A301">
+      <c r="A301" s="1">
         <v>300</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="1">
         <v>104731</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="1">
         <v>10144</v>
       </c>
-      <c r="E301">
+      <c r="E301" s="1">
         <f t="shared" si="4"/>
         <v>10042.237316458439</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A302">
+      <c r="A302" s="1">
         <v>301</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="1">
         <v>104918</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="1">
         <v>10160</v>
       </c>
-      <c r="E302">
+      <c r="E302" s="1">
         <f t="shared" si="4"/>
         <v>10051.880048608738</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A303">
+      <c r="A303" s="1">
         <v>302</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="1">
         <v>105142</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="1">
         <v>10181</v>
       </c>
-      <c r="E303">
+      <c r="E303" s="1">
         <f t="shared" si="4"/>
         <v>10063.420254850127</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A304">
+      <c r="A304" s="1">
         <v>303</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="1">
         <v>105486</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="1">
         <v>10198</v>
       </c>
-      <c r="E304">
+      <c r="E304" s="1">
         <f t="shared" si="4"/>
         <v>10081.120621489154</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A305">
+      <c r="A305" s="1">
         <v>304</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="1">
         <v>105773</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="1">
         <v>10212</v>
       </c>
-      <c r="E305">
+      <c r="E305" s="1">
         <f t="shared" si="4"/>
         <v>10095.867682764469</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A306">
+      <c r="A306" s="1">
         <v>305</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="1">
         <v>106022</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="1">
         <v>10218</v>
       </c>
-      <c r="E306">
+      <c r="E306" s="1">
         <f t="shared" si="4"/>
         <v>10108.647201209056</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A307">
+      <c r="A307" s="1">
         <v>306</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="1">
         <v>106224</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="1">
         <v>10228</v>
       </c>
-      <c r="E307">
+      <c r="E307" s="1">
         <f t="shared" si="4"/>
         <v>10119.004337410524</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A308">
+      <c r="A308" s="1">
         <v>307</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="1">
         <v>106681</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="1">
         <v>10243</v>
       </c>
-      <c r="E308">
+      <c r="E308" s="1">
         <f t="shared" si="4"/>
         <v>10142.402550238692</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A309">
+      <c r="A309" s="1">
         <v>308</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="1">
         <v>107022</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="1">
         <v>10265</v>
       </c>
-      <c r="E309">
+      <c r="E309" s="1">
         <f t="shared" si="4"/>
         <v>10159.831456208845</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A310">
+      <c r="A310" s="1">
         <v>309</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="1">
         <v>107244</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="1">
         <v>10288</v>
       </c>
-      <c r="E310">
+      <c r="E310" s="1">
         <f t="shared" si="4"/>
         <v>10171.164348185632</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A311">
+      <c r="A311" s="1">
         <v>310</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="1">
         <v>107481</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="1">
         <v>10303</v>
       </c>
-      <c r="E311">
+      <c r="E311" s="1">
         <f t="shared" si="4"/>
         <v>10183.25102106922</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A312">
+      <c r="A312" s="1">
         <v>311</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="1">
         <v>107696</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="1">
         <v>10317</v>
       </c>
-      <c r="E312">
+      <c r="E312" s="1">
         <f t="shared" si="4"/>
         <v>10194.2050770521</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A313">
+      <c r="A313" s="1">
         <v>312</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="1">
         <v>107979</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="1">
         <v>10324</v>
       </c>
-      <c r="E313">
+      <c r="E313" s="1">
         <f t="shared" si="4"/>
         <v>10208.608281929635</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A314">
+      <c r="A314" s="1">
         <v>313</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="1">
         <v>108265</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="1">
         <v>10340</v>
       </c>
-      <c r="E314">
+      <c r="E314" s="1">
         <f t="shared" si="4"/>
         <v>10223.146463528505</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A315">
+      <c r="A315" s="1">
         <v>314</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="1">
         <v>109001</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="1">
         <v>10380</v>
       </c>
-      <c r="E315">
+      <c r="E315" s="1">
         <f t="shared" si="4"/>
         <v>10260.47803805958</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A316">
+      <c r="A316" s="1">
         <v>315</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="1">
         <v>109298</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="1">
         <v>10396</v>
       </c>
-      <c r="E316">
+      <c r="E316" s="1">
         <f t="shared" si="4"/>
         <v>10275.509553329379</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A317">
+      <c r="A317" s="1">
         <v>316</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="1">
         <v>109665</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="1">
         <v>10407</v>
       </c>
-      <c r="E317">
+      <c r="E317" s="1">
         <f t="shared" si="4"/>
         <v>10294.057808055459</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A318">
+      <c r="A318" s="1">
         <v>317</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="1">
         <v>110051</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="1">
         <v>10432</v>
       </c>
-      <c r="E318">
+      <c r="E318" s="1">
         <f t="shared" si="4"/>
         <v>10313.535410036375</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A319">
+      <c r="A319" s="1">
         <v>318</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="1">
         <v>110484</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="1">
         <v>10443</v>
       </c>
-      <c r="E319">
+      <c r="E319" s="1">
         <f t="shared" si="4"/>
         <v>10335.34711417212</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A320">
+      <c r="A320" s="1">
         <v>319</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="1">
         <v>110809</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="1">
         <v>10449</v>
       </c>
-      <c r="E320">
+      <c r="E320" s="1">
         <f t="shared" si="4"/>
         <v>10351.692550915781</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A321">
+      <c r="A321" s="1">
         <v>320</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="1">
         <v>111080</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="1">
         <v>10464</v>
       </c>
-      <c r="E321">
+      <c r="E321" s="1">
         <f t="shared" si="4"/>
         <v>10365.30520366452</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A322">
+      <c r="A322" s="1">
         <v>321</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="1">
         <v>111235</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="1">
         <v>10475</v>
       </c>
-      <c r="E322">
+      <c r="E322" s="1">
         <f t="shared" si="4"/>
         <v>10373.08414114771</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A323">
+      <c r="A323" s="1">
         <v>322</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="1">
         <v>111393</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="1">
         <v>10481</v>
       </c>
-      <c r="E323">
+      <c r="E323" s="1">
         <f t="shared" ref="E323:E386" si="5">$H$2*POWER(B323,$H$3)</f>
         <v>10381.008486244285</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A324">
+      <c r="A324" s="1">
         <v>323</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="1">
         <v>111872</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="1">
         <v>10499</v>
       </c>
-      <c r="E324">
+      <c r="E324" s="1">
         <f t="shared" si="5"/>
         <v>10405.000611998072</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A325">
+      <c r="A325" s="1">
         <v>324</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="1">
         <v>112273</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="1">
         <v>10509</v>
       </c>
-      <c r="E325">
+      <c r="E325" s="1">
         <f t="shared" si="5"/>
         <v>10425.049405132988</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A326">
+      <c r="A326" s="1">
         <v>325</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="1">
         <v>112551</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="1">
         <v>10520</v>
       </c>
-      <c r="E326">
+      <c r="E326" s="1">
         <f t="shared" si="5"/>
         <v>10438.929156492555</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A327">
+      <c r="A327" s="1">
         <v>326</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="1">
         <v>112949</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="1">
         <v>10531</v>
       </c>
-      <c r="E327">
+      <c r="E327" s="1">
         <f t="shared" si="5"/>
         <v>10458.772627882374</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A328">
+      <c r="A328" s="1">
         <v>327</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="1">
         <v>113263</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="1">
         <v>10559</v>
       </c>
-      <c r="E328">
+      <c r="E328" s="1">
         <f t="shared" si="5"/>
         <v>10474.40524338447</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A329">
+      <c r="A329" s="1">
         <v>328</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="1">
         <v>113506</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="1">
         <v>10563</v>
       </c>
-      <c r="E329">
+      <c r="E329" s="1">
         <f t="shared" si="5"/>
         <v>10486.489356909495</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A330">
+      <c r="A330" s="1">
         <v>329</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="1">
         <v>113848</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="1">
         <v>10575</v>
       </c>
-      <c r="E330">
+      <c r="E330" s="1">
         <f t="shared" si="5"/>
         <v>10503.476398302984</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A331">
+      <c r="A331" s="1">
         <v>330</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="1">
         <v>114726</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="1">
         <v>10620</v>
       </c>
-      <c r="E331">
+      <c r="E331" s="1">
         <f t="shared" si="5"/>
         <v>10546.978773712226</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A332">
+      <c r="A332" s="1">
         <v>331</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="1">
         <v>115007</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="1">
         <v>10645</v>
       </c>
-      <c r="E332">
+      <c r="E332" s="1">
         <f t="shared" si="5"/>
         <v>10560.868999937886</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A333">
+      <c r="A333" s="1">
         <v>332</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="1">
         <v>115572</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="1">
         <v>10660</v>
       </c>
-      <c r="E333">
+      <c r="E333" s="1">
         <f t="shared" si="5"/>
         <v>10588.750372236074</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A334">
+      <c r="A334" s="1">
         <v>333</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="1">
         <v>115874</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="1">
         <v>10660</v>
       </c>
-      <c r="E334">
+      <c r="E334" s="1">
         <f t="shared" si="5"/>
         <v>10603.627510650425</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A335">
+      <c r="A335" s="1">
         <v>334</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="1">
         <v>116139</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="1">
         <v>10675</v>
       </c>
-      <c r="E335">
+      <c r="E335" s="1">
         <f t="shared" si="5"/>
         <v>10616.667203910138</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A336">
+      <c r="A336" s="1">
         <v>335</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="1">
         <v>116440</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="1">
         <v>10685</v>
       </c>
-      <c r="E336">
+      <c r="E336" s="1">
         <f t="shared" si="5"/>
         <v>10631.461664535207</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A337">
+      <c r="A337" s="1">
         <v>336</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="1">
         <v>116846</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="1">
         <v>10705</v>
       </c>
-      <c r="E337">
+      <c r="E337" s="1">
         <f t="shared" si="5"/>
         <v>10651.389023420988</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A338">
+      <c r="A338" s="1">
         <v>337</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="1">
         <v>117187</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="1">
         <v>10723</v>
       </c>
-      <c r="E338">
+      <c r="E338" s="1">
         <f t="shared" si="5"/>
         <v>10668.101337621936</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A339">
+      <c r="A339" s="1">
         <v>338</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="1">
         <v>117429</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="1">
         <v>10751</v>
       </c>
-      <c r="E339">
+      <c r="E339" s="1">
         <f t="shared" si="5"/>
         <v>10679.948063080465</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A340">
+      <c r="A340" s="1">
         <v>339</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="1">
         <v>117731</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="1">
         <v>10766</v>
       </c>
-      <c r="E340">
+      <c r="E340" s="1">
         <f t="shared" si="5"/>
         <v>10694.716183954773</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A341">
+      <c r="A341" s="1">
         <v>340</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="1">
         <v>118078</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="1">
         <v>10774</v>
       </c>
-      <c r="E341">
+      <c r="E341" s="1">
         <f t="shared" si="5"/>
         <v>10711.663261474121</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A342">
+      <c r="A342" s="1">
         <v>341</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="1">
         <v>118338</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="1">
         <v>10791</v>
       </c>
-      <c r="E342">
+      <c r="E342" s="1">
         <f t="shared" si="5"/>
         <v>10724.34628578053</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A343">
+      <c r="A343" s="1">
         <v>342</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="1">
         <v>118688</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="1">
         <v>10819</v>
       </c>
-      <c r="E343">
+      <c r="E343" s="1">
         <f t="shared" si="5"/>
         <v>10741.399275649472</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A344">
+      <c r="A344" s="1">
         <v>343</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="1">
         <v>118841</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="1">
         <v>10830</v>
       </c>
-      <c r="E344">
+      <c r="E344" s="1">
         <f t="shared" si="5"/>
         <v>10748.846569539204</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A345">
+      <c r="A345" s="1">
         <v>344</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="1">
         <v>119276</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="1">
         <v>10845</v>
       </c>
-      <c r="E345">
+      <c r="E345" s="1">
         <f t="shared" si="5"/>
         <v>10769.996083126076</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A346">
+      <c r="A346" s="1">
         <v>345</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="1">
         <v>119718</v>
       </c>
-      <c r="C346">
+      <c r="C346" s="1">
         <v>10864</v>
       </c>
-      <c r="E346">
+      <c r="E346" s="1">
         <f t="shared" si="5"/>
         <v>10791.449465467602</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A347">
+      <c r="A347" s="1">
         <v>346</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="1">
         <v>120394</v>
       </c>
-      <c r="C347">
+      <c r="C347" s="1">
         <v>10898</v>
       </c>
-      <c r="E347">
+      <c r="E347" s="1">
         <f t="shared" si="5"/>
         <v>10824.189867430749</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A348">
+      <c r="A348" s="1">
         <v>347</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="1">
         <v>120654</v>
       </c>
-      <c r="C348">
+      <c r="C348" s="1">
         <v>10918</v>
       </c>
-      <c r="E348">
+      <c r="E348" s="1">
         <f t="shared" si="5"/>
         <v>10836.759706057368</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A349">
+      <c r="A349" s="1">
         <v>348</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="1">
         <v>121150</v>
       </c>
-      <c r="C349">
+      <c r="C349" s="1">
         <v>10964</v>
       </c>
-      <c r="E349">
+      <c r="E349" s="1">
         <f t="shared" si="5"/>
         <v>10860.704432698174</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A350">
+      <c r="A350" s="1">
         <v>349</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="1">
         <v>121519</v>
       </c>
-      <c r="C350">
+      <c r="C350" s="1">
         <v>10985</v>
       </c>
-      <c r="E350">
+      <c r="E350" s="1">
         <f t="shared" si="5"/>
         <v>10878.488782899632</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A351">
+      <c r="A351" s="1">
         <v>350</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="1">
         <v>121738</v>
       </c>
-      <c r="C351">
+      <c r="C351" s="1">
         <v>10990</v>
       </c>
-      <c r="E351">
+      <c r="E351" s="1">
         <f t="shared" si="5"/>
         <v>10889.031925819616</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A352">
+      <c r="A352" s="1">
         <v>351</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="1">
         <v>121957</v>
       </c>
-      <c r="C352">
+      <c r="C352" s="1">
         <v>11004</v>
       </c>
-      <c r="E352">
+      <c r="E352" s="1">
         <f t="shared" si="5"/>
         <v>10899.566309833954</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A353">
+      <c r="A353" s="1">
         <v>352</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="1">
         <v>122113</v>
       </c>
-      <c r="C353">
+      <c r="C353" s="1">
         <v>11018</v>
       </c>
-      <c r="E353">
+      <c r="E353" s="1">
         <f t="shared" si="5"/>
         <v>10907.064925490968</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A354">
+      <c r="A354" s="1">
         <v>353</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="1">
         <v>123027</v>
       </c>
-      <c r="C354">
+      <c r="C354" s="1">
         <v>11049</v>
       </c>
-      <c r="E354">
+      <c r="E354" s="1">
         <f t="shared" si="5"/>
         <v>10950.910488665088</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A355">
+      <c r="A355" s="1">
         <v>354</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="1">
         <v>123592</v>
       </c>
-      <c r="C355">
+      <c r="C355" s="1">
         <v>11049</v>
       </c>
-      <c r="E355">
+      <c r="E355" s="1">
         <f t="shared" si="5"/>
         <v>10977.938903491951</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A356">
+      <c r="A356" s="1">
         <v>355</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="1">
         <v>123780</v>
       </c>
-      <c r="C356">
+      <c r="C356" s="1">
         <v>11051</v>
       </c>
-      <c r="E356">
+      <c r="E356" s="1">
         <f t="shared" si="5"/>
         <v>10986.919766197543</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A357">
+      <c r="A357" s="1">
         <v>356</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="1">
         <v>124219</v>
       </c>
-      <c r="C357">
+      <c r="C357" s="1">
         <v>11051</v>
       </c>
-      <c r="E357">
+      <c r="E357" s="1">
         <f t="shared" si="5"/>
         <v>11007.866529984647</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A358">
+      <c r="A358" s="1">
         <v>357</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="1">
         <v>124499</v>
       </c>
-      <c r="C358">
+      <c r="C358" s="1">
         <v>11074</v>
       </c>
-      <c r="E358">
+      <c r="E358" s="1">
         <f t="shared" si="5"/>
         <v>11021.208792718917</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A359">
+      <c r="A359" s="1">
         <v>358</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="1">
         <v>124946</v>
       </c>
-      <c r="C359">
+      <c r="C359" s="1">
         <v>11083</v>
       </c>
-      <c r="E359">
+      <c r="E359" s="1">
         <f t="shared" si="5"/>
         <v>11042.480064197891</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A360">
+      <c r="A360" s="1">
         <v>359</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="1">
         <v>125316</v>
       </c>
-      <c r="C360">
+      <c r="C360" s="1">
         <v>11091</v>
       </c>
-      <c r="E360">
+      <c r="E360" s="1">
         <f t="shared" si="5"/>
         <v>11060.060575892139</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A361">
+      <c r="A361" s="1">
         <v>360</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="1">
         <v>125546</v>
       </c>
-      <c r="C361">
+      <c r="C361" s="1">
         <v>11105</v>
       </c>
-      <c r="E361">
+      <c r="E361" s="1">
         <f t="shared" si="5"/>
         <v>11070.976916846834</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A362">
+      <c r="A362" s="1">
         <v>361</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="1">
         <v>125796</v>
       </c>
-      <c r="C362">
+      <c r="C362" s="1">
         <v>11110</v>
       </c>
-      <c r="E362">
+      <c r="E362" s="1">
         <f t="shared" si="5"/>
         <v>11082.832030602831</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A363">
+      <c r="A363" s="1">
         <v>362</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="1">
         <v>126060</v>
       </c>
-      <c r="C363">
+      <c r="C363" s="1">
         <v>11133</v>
       </c>
-      <c r="E363">
+      <c r="E363" s="1">
         <f t="shared" si="5"/>
         <v>11095.339220580125</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A364">
+      <c r="A364" s="1">
         <v>363</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="1">
         <v>126318</v>
       </c>
-      <c r="C364">
+      <c r="C364" s="1">
         <v>11163</v>
       </c>
-      <c r="E364">
+      <c r="E364" s="1">
         <f t="shared" si="5"/>
         <v>11107.550469830894</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A365">
+      <c r="A365" s="1">
         <v>364</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="1">
         <v>126537</v>
       </c>
-      <c r="C365">
+      <c r="C365" s="1">
         <v>11191</v>
       </c>
-      <c r="E365">
+      <c r="E365" s="1">
         <f t="shared" si="5"/>
         <v>11117.906793775355</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A366">
+      <c r="A366" s="1">
         <v>365</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="1">
         <v>126733</v>
       </c>
-      <c r="C366">
+      <c r="C366" s="1">
         <v>11191</v>
       </c>
-      <c r="E366">
+      <c r="E366" s="1">
         <f t="shared" si="5"/>
         <v>11127.168447452339</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A367">
+      <c r="A367" s="1">
         <v>366</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="1">
         <v>127165</v>
       </c>
-      <c r="C367">
+      <c r="C367" s="1">
         <v>11209</v>
       </c>
-      <c r="E367">
+      <c r="E367" s="1">
         <f t="shared" si="5"/>
         <v>11147.558550957965</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A368">
+      <c r="A368" s="1">
         <v>367</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="1">
         <v>127513</v>
       </c>
-      <c r="C368">
+      <c r="C368" s="1">
         <v>11222</v>
       </c>
-      <c r="E368">
+      <c r="E368" s="1">
         <f t="shared" si="5"/>
         <v>11163.960649757868</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A369">
+      <c r="A369" s="1">
         <v>368</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="1">
         <v>127796</v>
       </c>
-      <c r="C369">
+      <c r="C369" s="1">
         <v>11242</v>
       </c>
-      <c r="E369">
+      <c r="E369" s="1">
         <f t="shared" si="5"/>
         <v>11177.283896635457</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A370">
+      <c r="A370" s="1">
         <v>369</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="1">
         <v>127990</v>
       </c>
-      <c r="C370">
+      <c r="C370" s="1">
         <v>11261</v>
       </c>
-      <c r="E370">
+      <c r="E370" s="1">
         <f t="shared" si="5"/>
         <v>11186.409273714717</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A371">
+      <c r="A371" s="1">
         <v>370</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="1">
         <v>128213</v>
       </c>
-      <c r="C371">
+      <c r="C371" s="1">
         <v>11263</v>
       </c>
-      <c r="E371">
+      <c r="E371" s="1">
         <f t="shared" si="5"/>
         <v>11196.890862659551</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A372">
+      <c r="A372" s="1">
         <v>371</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="1">
         <v>128430</v>
       </c>
-      <c r="C372">
+      <c r="C372" s="1">
         <v>11263</v>
       </c>
-      <c r="E372">
+      <c r="E372" s="1">
         <f t="shared" si="5"/>
         <v>11207.082353173437</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A373">
+      <c r="A373" s="1">
         <v>372</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="1">
         <v>128595</v>
       </c>
-      <c r="C373">
+      <c r="C373" s="1">
         <v>11271</v>
       </c>
-      <c r="E373">
+      <c r="E373" s="1">
         <f t="shared" si="5"/>
         <v>11214.826319819422</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A374">
+      <c r="A374" s="1">
         <v>373</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="1">
         <v>128769</v>
       </c>
-      <c r="C374">
+      <c r="C374" s="1">
         <v>11284</v>
       </c>
-      <c r="E374">
+      <c r="E374" s="1">
         <f t="shared" si="5"/>
         <v>11222.987713311404</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A375">
+      <c r="A375" s="1">
         <v>374</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="1">
         <v>129041</v>
       </c>
-      <c r="C375">
+      <c r="C375" s="1">
         <v>11297</v>
       </c>
-      <c r="E375">
+      <c r="E375" s="1">
         <f t="shared" si="5"/>
         <v>11235.735553171735</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A376">
+      <c r="A376" s="1">
         <v>375</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="1">
         <v>129336</v>
       </c>
-      <c r="C376">
+      <c r="C376" s="1">
         <v>11306</v>
       </c>
-      <c r="E376">
+      <c r="E376" s="1">
         <f t="shared" si="5"/>
         <v>11249.54731019762</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A377">
+      <c r="A377" s="1">
         <v>376</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="1">
         <v>129657</v>
       </c>
-      <c r="C377">
+      <c r="C377" s="1">
         <v>11314</v>
       </c>
-      <c r="E377">
+      <c r="E377" s="1">
         <f t="shared" si="5"/>
         <v>11264.559849891739</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A378">
+      <c r="A378" s="1">
         <v>377</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="1">
         <v>129806</v>
       </c>
-      <c r="C378">
+      <c r="C378" s="1">
         <v>11318</v>
       </c>
-      <c r="E378">
+      <c r="E378" s="1">
         <f t="shared" si="5"/>
         <v>11271.522451767805</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A379">
+      <c r="A379" s="1">
         <v>378</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="1">
         <v>130039</v>
       </c>
-      <c r="C379">
+      <c r="C379" s="1">
         <v>11328</v>
       </c>
-      <c r="E379">
+      <c r="E379" s="1">
         <f t="shared" si="5"/>
         <v>11282.402881618913</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A380">
+      <c r="A380" s="1">
         <v>379</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="1">
         <v>130259</v>
       </c>
-      <c r="C380">
+      <c r="C380" s="1">
         <v>11338</v>
       </c>
-      <c r="E380">
+      <c r="E380" s="1">
         <f t="shared" si="5"/>
         <v>11292.667984846121</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A381">
+      <c r="A381" s="1">
         <v>380</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="1">
         <v>130486</v>
       </c>
-      <c r="C381">
+      <c r="C381" s="1">
         <v>11344</v>
       </c>
-      <c r="E381">
+      <c r="E381" s="1">
         <f t="shared" si="5"/>
         <v>11303.251312370974</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A382">
+      <c r="A382" s="1">
         <v>381</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="1">
         <v>130726</v>
       </c>
-      <c r="C382">
+      <c r="C382" s="1">
         <v>11356</v>
       </c>
-      <c r="E382">
+      <c r="E382" s="1">
         <f t="shared" si="5"/>
         <v>11314.431487045116</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A383">
+      <c r="A383" s="1">
         <v>382</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="1">
         <v>131026</v>
       </c>
-      <c r="C383">
+      <c r="C383" s="1">
         <v>11378</v>
       </c>
-      <c r="E383">
+      <c r="E383" s="1">
         <f t="shared" si="5"/>
         <v>11328.393378722621</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A384">
+      <c r="A384" s="1">
         <v>383</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="1">
         <v>131346</v>
       </c>
-      <c r="C384">
+      <c r="C384" s="1">
         <v>11390</v>
       </c>
-      <c r="E384">
+      <c r="E384" s="1">
         <f t="shared" si="5"/>
         <v>11343.269794296848</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A385">
+      <c r="A385" s="1">
         <v>384</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="1">
         <v>131702</v>
       </c>
-      <c r="C385">
+      <c r="C385" s="1">
         <v>11404</v>
       </c>
-      <c r="E385">
+      <c r="E385" s="1">
         <f t="shared" si="5"/>
         <v>11359.800144139954</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A386">
+      <c r="A386" s="1">
         <v>385</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="1">
         <v>131893</v>
       </c>
-      <c r="C386">
+      <c r="C386" s="1">
         <v>11422</v>
       </c>
-      <c r="E386">
+      <c r="E386" s="1">
         <f t="shared" si="5"/>
         <v>11368.660446664009</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A387">
+      <c r="A387" s="1">
         <v>386</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="1">
         <v>132233</v>
       </c>
-      <c r="C387">
+      <c r="C387" s="1">
         <v>11431</v>
       </c>
-      <c r="E387">
+      <c r="E387" s="1">
         <f t="shared" ref="E387:E450" si="6">$H$2*POWER(B387,$H$3)</f>
         <v>11384.418057628043</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A388">
+      <c r="A388" s="1">
         <v>387</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="1">
         <v>132586</v>
       </c>
-      <c r="C388">
+      <c r="C388" s="1">
         <v>11444</v>
       </c>
-      <c r="E388">
+      <c r="E388" s="1">
         <f t="shared" si="6"/>
         <v>11400.758372400211</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A389">
+      <c r="A389" s="1">
         <v>388</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="1">
         <v>132872</v>
       </c>
-      <c r="C389">
+      <c r="C389" s="1">
         <v>11460</v>
       </c>
-      <c r="E389">
+      <c r="E389" s="1">
         <f t="shared" si="6"/>
         <v>11413.982534109116</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A390">
+      <c r="A390" s="1">
         <v>389</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="1">
         <v>133154</v>
       </c>
-      <c r="C390">
+      <c r="C390" s="1">
         <v>11473</v>
       </c>
-      <c r="E390">
+      <c r="E390" s="1">
         <f t="shared" si="6"/>
         <v>11427.008872792532</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A391">
+      <c r="A391" s="1">
         <v>390</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="1">
         <v>133400</v>
       </c>
-      <c r="C391">
+      <c r="C391" s="1">
         <v>11486</v>
       </c>
-      <c r="E391">
+      <c r="E391" s="1">
         <f t="shared" si="6"/>
         <v>11438.361869549242</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A392">
+      <c r="A392" s="1">
         <v>391</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="1">
         <v>133771</v>
       </c>
-      <c r="C392">
+      <c r="C392" s="1">
         <v>11495</v>
       </c>
-      <c r="E392">
+      <c r="E392" s="1">
         <f t="shared" si="6"/>
         <v>11455.465388344379</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A393">
+      <c r="A393" s="1">
         <v>392</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="1">
         <v>134148</v>
       </c>
-      <c r="C393">
+      <c r="C393" s="1">
         <v>11497</v>
       </c>
-      <c r="E393">
+      <c r="E393" s="1">
         <f t="shared" si="6"/>
         <v>11472.823079354399</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A394">
+      <c r="A394" s="1">
         <v>393</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="1">
         <v>134500</v>
       </c>
-      <c r="C394">
+      <c r="C394" s="1">
         <v>11528</v>
       </c>
-      <c r="E394">
+      <c r="E394" s="1">
         <f t="shared" si="6"/>
         <v>11489.009396599076</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A395">
+      <c r="A395" s="1">
         <v>394</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="1">
         <v>134680</v>
       </c>
-      <c r="C395">
+      <c r="C395" s="1">
         <v>11535</v>
       </c>
-      <c r="E395">
+      <c r="E395" s="1">
         <f t="shared" si="6"/>
         <v>11497.278927756986</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A396">
+      <c r="A396" s="1">
         <v>395</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="1">
         <v>134947</v>
       </c>
-      <c r="C396">
+      <c r="C396" s="1">
         <v>11547</v>
       </c>
-      <c r="E396">
+      <c r="E396" s="1">
         <f t="shared" si="6"/>
         <v>11509.536000322923</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A397">
+      <c r="A397" s="1">
         <v>396</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="1">
         <v>135111</v>
       </c>
-      <c r="C397">
+      <c r="C397" s="1">
         <v>11553</v>
       </c>
-      <c r="E397">
+      <c r="E397" s="1">
         <f t="shared" si="6"/>
         <v>11517.059135054904</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A398">
+      <c r="A398" s="1">
         <v>397</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="1">
         <v>135440</v>
       </c>
-      <c r="C398">
+      <c r="C398" s="1">
         <v>11571</v>
       </c>
-      <c r="E398">
+      <c r="E398" s="1">
         <f t="shared" si="6"/>
         <v>11532.138567474867</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A399">
+      <c r="A399" s="1">
         <v>398</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="1">
         <v>135726</v>
       </c>
-      <c r="C399">
+      <c r="C399" s="1">
         <v>11580</v>
       </c>
-      <c r="E399">
+      <c r="E399" s="1">
         <f t="shared" si="6"/>
         <v>11545.233387635033</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A400">
+      <c r="A400" s="1">
         <v>399</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="1">
         <v>136306</v>
       </c>
-      <c r="C400">
+      <c r="C400" s="1">
         <v>11593</v>
       </c>
-      <c r="E400">
+      <c r="E400" s="1">
         <f t="shared" si="6"/>
         <v>11571.750236155238</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A401">
+      <c r="A401" s="1">
         <v>400</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="1">
         <v>136637</v>
       </c>
-      <c r="C401">
+      <c r="C401" s="1">
         <v>11609</v>
       </c>
-      <c r="E401">
+      <c r="E401" s="1">
         <f t="shared" si="6"/>
         <v>11586.859765941579</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A402">
+      <c r="A402" s="1">
         <v>401</v>
       </c>
-      <c r="B402">
+      <c r="B402" s="1">
         <v>136940</v>
       </c>
-      <c r="C402">
+      <c r="C402" s="1">
         <v>11621</v>
       </c>
-      <c r="E402">
+      <c r="E402" s="1">
         <f t="shared" si="6"/>
         <v>11600.676329860788</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A403">
+      <c r="A403" s="1">
         <v>402</v>
       </c>
-      <c r="B403">
+      <c r="B403" s="1">
         <v>137259</v>
       </c>
-      <c r="C403">
+      <c r="C403" s="1">
         <v>11628</v>
       </c>
-      <c r="E403">
+      <c r="E403" s="1">
         <f t="shared" si="6"/>
         <v>11615.207227658331</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A404">
+      <c r="A404" s="1">
         <v>403</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="1">
         <v>137636</v>
       </c>
-      <c r="C404">
+      <c r="C404" s="1">
         <v>11664</v>
       </c>
-      <c r="E404">
+      <c r="E404" s="1">
         <f t="shared" si="6"/>
         <v>11632.360006618963</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A405">
+      <c r="A405" s="1">
         <v>404</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="1">
         <v>137910</v>
       </c>
-      <c r="C405">
+      <c r="C405" s="1">
         <v>11669</v>
       </c>
-      <c r="E405">
+      <c r="E405" s="1">
         <f t="shared" si="6"/>
         <v>11644.812865346816</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A406">
+      <c r="A406" s="1">
         <v>405</v>
       </c>
-      <c r="B406">
+      <c r="B406" s="1">
         <v>138419</v>
       </c>
-      <c r="C406">
+      <c r="C406" s="1">
         <v>11674</v>
       </c>
-      <c r="E406">
+      <c r="E406" s="1">
         <f t="shared" si="6"/>
         <v>11667.915794725053</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A407">
+      <c r="A407" s="1">
         <v>406</v>
       </c>
-      <c r="B407">
+      <c r="B407" s="1">
         <v>138918</v>
       </c>
-      <c r="C407">
+      <c r="C407" s="1">
         <v>11708</v>
       </c>
-      <c r="E407">
+      <c r="E407" s="1">
         <f t="shared" si="6"/>
         <v>11690.526766269029</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A408">
+      <c r="A408" s="1">
         <v>407</v>
       </c>
-      <c r="B408">
+      <c r="B408" s="1">
         <v>139184</v>
       </c>
-      <c r="C408">
+      <c r="C408" s="1">
         <v>11715</v>
       </c>
-      <c r="E408">
+      <c r="E408" s="1">
         <f t="shared" si="6"/>
         <v>11702.564577005252</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A409">
+      <c r="A409" s="1">
         <v>408</v>
       </c>
-      <c r="B409">
+      <c r="B409" s="1">
         <v>139333</v>
       </c>
-      <c r="C409">
+      <c r="C409" s="1">
         <v>11719</v>
       </c>
-      <c r="E409">
+      <c r="E409" s="1">
         <f t="shared" si="6"/>
         <v>11709.302917032155</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A410">
+      <c r="A410" s="1">
         <v>409</v>
       </c>
-      <c r="B410">
+      <c r="B410" s="1">
         <v>140011</v>
       </c>
-      <c r="C410">
+      <c r="C410" s="1">
         <v>11738</v>
       </c>
-      <c r="E410">
+      <c r="E410" s="1">
         <f t="shared" si="6"/>
         <v>11739.922673524808</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A411">
+      <c r="A411" s="1">
         <v>410</v>
       </c>
-      <c r="B411">
+      <c r="B411" s="1">
         <v>140199</v>
       </c>
-      <c r="C411">
+      <c r="C411" s="1">
         <v>11742</v>
       </c>
-      <c r="E411">
+      <c r="E411" s="1">
         <f t="shared" si="6"/>
         <v>11748.400969302322</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A412">
+      <c r="A412" s="1">
         <v>411</v>
       </c>
-      <c r="B412">
+      <c r="B412" s="1">
         <v>140470</v>
       </c>
-      <c r="C412">
+      <c r="C412" s="1">
         <v>11751</v>
       </c>
-      <c r="E412">
+      <c r="E412" s="1">
         <f t="shared" si="6"/>
         <v>11760.613105273533</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A413">
+      <c r="A413" s="1">
         <v>412</v>
       </c>
-      <c r="B413">
+      <c r="B413" s="1">
         <v>140819</v>
       </c>
-      <c r="C413">
+      <c r="C413" s="1">
         <v>11771</v>
       </c>
-      <c r="E413">
+      <c r="E413" s="1">
         <f t="shared" si="6"/>
         <v>11776.32414987256</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A414">
+      <c r="A414" s="1">
         <v>413</v>
       </c>
-      <c r="B414">
+      <c r="B414" s="1">
         <v>141284</v>
       </c>
-      <c r="C414">
+      <c r="C414" s="1">
         <v>11788</v>
       </c>
-      <c r="E414">
+      <c r="E414" s="1">
         <f t="shared" si="6"/>
         <v>11797.229279050407</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A415">
+      <c r="A415" s="1">
         <v>414</v>
       </c>
-      <c r="B415">
+      <c r="B415" s="1">
         <v>141640</v>
       </c>
-      <c r="C415">
+      <c r="C415" s="1">
         <v>11805</v>
       </c>
-      <c r="E415">
+      <c r="E415" s="1">
         <f t="shared" si="6"/>
         <v>11813.212590491594</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A416">
+      <c r="A416" s="1">
         <v>415</v>
       </c>
-      <c r="B416">
+      <c r="B416" s="1">
         <v>142064</v>
       </c>
-      <c r="C416">
+      <c r="C416" s="1">
         <v>11818</v>
       </c>
-      <c r="E416">
+      <c r="E416" s="1">
         <f t="shared" si="6"/>
         <v>11832.224697631937</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A417">
+      <c r="A417" s="1">
         <v>416</v>
       </c>
-      <c r="B417">
+      <c r="B417" s="1">
         <v>142454</v>
       </c>
-      <c r="C417">
+      <c r="C417" s="1">
         <v>11818</v>
       </c>
-      <c r="E417">
+      <c r="E417" s="1">
         <f t="shared" si="6"/>
         <v>11849.689115938256</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A418">
+      <c r="A418" s="1">
         <v>417</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="1">
         <v>142739</v>
       </c>
-      <c r="C418">
+      <c r="C418" s="1">
         <v>11821</v>
       </c>
-      <c r="E418">
+      <c r="E418" s="1">
         <f t="shared" si="6"/>
         <v>11862.437609943576</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A419">
+      <c r="A419" s="1">
         <v>418</v>
       </c>
-      <c r="B419">
+      <c r="B419" s="1">
         <v>142888</v>
       </c>
-      <c r="C419">
+      <c r="C419" s="1">
         <v>11835</v>
       </c>
-      <c r="E419">
+      <c r="E419" s="1">
         <f t="shared" si="6"/>
         <v>11869.097930832831</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A420">
+      <c r="A420" s="1">
         <v>419</v>
       </c>
-      <c r="B420">
+      <c r="B420" s="1">
         <v>143134</v>
       </c>
-      <c r="C420">
+      <c r="C420" s="1">
         <v>11846</v>
       </c>
-      <c r="E420">
+      <c r="E420" s="1">
         <f t="shared" si="6"/>
         <v>11880.087147387612</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A421">
+      <c r="A421" s="1">
         <v>420</v>
       </c>
-      <c r="B421">
+      <c r="B421" s="1">
         <v>143387</v>
       </c>
-      <c r="C421">
+      <c r="C421" s="1">
         <v>11853</v>
       </c>
-      <c r="E421">
+      <c r="E421" s="1">
         <f t="shared" si="6"/>
         <v>11891.379967363777</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A422">
+      <c r="A422" s="1">
         <v>421</v>
       </c>
-      <c r="B422">
+      <c r="B422" s="1">
         <v>143774</v>
       </c>
-      <c r="C422">
+      <c r="C422" s="1">
         <v>11856</v>
       </c>
-      <c r="E422">
+      <c r="E422" s="1">
         <f t="shared" si="6"/>
         <v>11908.636169603915</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A423">
+      <c r="A423" s="1">
         <v>422</v>
       </c>
-      <c r="B423">
+      <c r="B423" s="1">
         <v>144014</v>
       </c>
-      <c r="C423">
+      <c r="C423" s="1">
         <v>11866</v>
       </c>
-      <c r="E423">
+      <c r="E423" s="1">
         <f t="shared" si="6"/>
         <v>11919.326911051689</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A424">
+      <c r="A424" s="1">
         <v>423</v>
       </c>
-      <c r="B424">
+      <c r="B424" s="1">
         <v>144271</v>
       </c>
-      <c r="C424">
+      <c r="C424" s="1">
         <v>11888</v>
       </c>
-      <c r="E424">
+      <c r="E424" s="1">
         <f t="shared" si="6"/>
         <v>11930.765791112364</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A425">
+      <c r="A425" s="1">
         <v>424</v>
       </c>
-      <c r="B425">
+      <c r="B425" s="1">
         <v>144630</v>
       </c>
-      <c r="C425">
+      <c r="C425" s="1">
         <v>11899</v>
       </c>
-      <c r="E425">
+      <c r="E425" s="1">
         <f t="shared" si="6"/>
         <v>11946.728867598962</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A426">
+      <c r="A426" s="1">
         <v>425</v>
       </c>
-      <c r="B426">
+      <c r="B426" s="1">
         <v>144871</v>
       </c>
-      <c r="C426">
+      <c r="C426" s="1">
         <v>11913</v>
       </c>
-      <c r="E426">
+      <c r="E426" s="1">
         <f t="shared" si="6"/>
         <v>11957.43476000125</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A427">
+      <c r="A427" s="1">
         <v>426</v>
       </c>
-      <c r="B427">
+      <c r="B427" s="1">
         <v>145284</v>
       </c>
-      <c r="C427">
+      <c r="C427" s="1">
         <v>11929</v>
       </c>
-      <c r="E427">
+      <c r="E427" s="1">
         <f t="shared" si="6"/>
         <v>11975.762258511195</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A428">
+      <c r="A428" s="1">
         <v>427</v>
       </c>
-      <c r="B428">
+      <c r="B428" s="1">
         <v>145603</v>
       </c>
-      <c r="C428">
+      <c r="C428" s="1">
         <v>11944</v>
       </c>
-      <c r="E428">
+      <c r="E428" s="1">
         <f t="shared" si="6"/>
         <v>11989.901894812936</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A429">
+      <c r="A429" s="1">
         <v>428</v>
       </c>
-      <c r="B429">
+      <c r="B429" s="1">
         <v>146172</v>
       </c>
-      <c r="C429">
+      <c r="C429" s="1">
         <v>11979</v>
       </c>
-      <c r="E429">
+      <c r="E429" s="1">
         <f t="shared" si="6"/>
         <v>12015.087266799173</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A430">
+      <c r="A430" s="1">
         <v>429</v>
       </c>
-      <c r="B430">
+      <c r="B430" s="1">
         <v>146465</v>
       </c>
-      <c r="C430">
+      <c r="C430" s="1">
         <v>11984</v>
       </c>
-      <c r="E430">
+      <c r="E430" s="1">
         <f t="shared" si="6"/>
         <v>12028.038516947638</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A431">
+      <c r="A431" s="1">
         <v>430</v>
       </c>
-      <c r="B431">
+      <c r="B431" s="1">
         <v>146877</v>
       </c>
-      <c r="C431">
+      <c r="C431" s="1">
         <v>12014</v>
       </c>
-      <c r="E431">
+      <c r="E431" s="1">
         <f t="shared" si="6"/>
         <v>12046.22959925688</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A432">
+      <c r="A432" s="1">
         <v>431</v>
       </c>
-      <c r="B432">
+      <c r="B432" s="1">
         <v>147043</v>
       </c>
-      <c r="C432">
+      <c r="C432" s="1">
         <v>12017</v>
       </c>
-      <c r="E432">
+      <c r="E432" s="1">
         <f t="shared" si="6"/>
         <v>12053.552352009709</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A433">
+      <c r="A433" s="1">
         <v>432</v>
       </c>
-      <c r="B433">
+      <c r="B433" s="1">
         <v>147229</v>
       </c>
-      <c r="C433">
+      <c r="C433" s="1">
         <v>12021</v>
       </c>
-      <c r="E433">
+      <c r="E433" s="1">
         <f t="shared" si="6"/>
         <v>12061.752828395967</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A434">
+      <c r="A434" s="1">
         <v>433</v>
       </c>
-      <c r="B434">
+      <c r="B434" s="1">
         <v>147409</v>
       </c>
-      <c r="C434">
+      <c r="C434" s="1">
         <v>12026</v>
       </c>
-      <c r="E434">
+      <c r="E434" s="1">
         <f t="shared" si="6"/>
         <v>12069.684217320955</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A435">
+      <c r="A435" s="1">
         <v>434</v>
       </c>
-      <c r="B435">
+      <c r="B435" s="1">
         <v>148006</v>
       </c>
-      <c r="C435">
+      <c r="C435" s="1">
         <v>12053</v>
       </c>
-      <c r="E435">
+      <c r="E435" s="1">
         <f t="shared" si="6"/>
         <v>12095.958013415911</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A436">
+      <c r="A436" s="1">
         <v>435</v>
       </c>
-      <c r="B436">
+      <c r="B436" s="1">
         <v>148447</v>
       </c>
-      <c r="C436">
+      <c r="C436" s="1">
         <v>12084</v>
       </c>
-      <c r="E436">
+      <c r="E436" s="1">
         <f t="shared" si="6"/>
         <v>12115.3348655195</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A437">
+      <c r="A437" s="1">
         <v>436</v>
       </c>
-      <c r="B437">
+      <c r="B437" s="1">
         <v>148747</v>
       </c>
-      <c r="C437">
+      <c r="C437" s="1">
         <v>12091</v>
       </c>
-      <c r="E437">
+      <c r="E437" s="1">
         <f t="shared" si="6"/>
         <v>12128.501201601694</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A438">
+      <c r="A438" s="1">
         <v>437</v>
       </c>
-      <c r="B438">
+      <c r="B438" s="1">
         <v>149198</v>
       </c>
-      <c r="C438">
+      <c r="C438" s="1">
         <v>12111</v>
       </c>
-      <c r="E438">
+      <c r="E438" s="1">
         <f t="shared" si="6"/>
         <v>12148.271530954526</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A439">
+      <c r="A439" s="1">
         <v>438</v>
       </c>
-      <c r="B439">
+      <c r="B439" s="1">
         <v>149708</v>
       </c>
-      <c r="C439">
+      <c r="C439" s="1">
         <v>12111</v>
       </c>
-      <c r="E439">
+      <c r="E439" s="1">
         <f t="shared" si="6"/>
         <v>12170.594987815011</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A440">
+      <c r="A440" s="1">
         <v>439</v>
       </c>
-      <c r="B440">
+      <c r="B440" s="1">
         <v>149933</v>
       </c>
-      <c r="C440">
+      <c r="C440" s="1">
         <v>12118</v>
       </c>
-      <c r="E440">
+      <c r="E440" s="1">
         <f t="shared" si="6"/>
         <v>12180.432400782687</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A441">
+      <c r="A441" s="1">
         <v>440</v>
       </c>
-      <c r="B441">
+      <c r="B441" s="1">
         <v>150359</v>
       </c>
-      <c r="C441">
+      <c r="C441" s="1">
         <v>12127</v>
       </c>
-      <c r="E441">
+      <c r="E441" s="1">
         <f t="shared" si="6"/>
         <v>12199.03924015829</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A442">
+      <c r="A442" s="1">
         <v>441</v>
       </c>
-      <c r="B442">
+      <c r="B442" s="1">
         <v>150726</v>
       </c>
-      <c r="C442">
+      <c r="C442" s="1">
         <v>12132</v>
       </c>
-      <c r="E442">
+      <c r="E442" s="1">
         <f t="shared" si="6"/>
         <v>12215.049555759415</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A443">
+      <c r="A443" s="1">
         <v>442</v>
       </c>
-      <c r="B443">
+      <c r="B443" s="1">
         <v>151049</v>
       </c>
-      <c r="C443">
+      <c r="C443" s="1">
         <v>12156</v>
       </c>
-      <c r="E443">
+      <c r="E443" s="1">
         <f t="shared" si="6"/>
         <v>12229.125483937503</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A444">
+      <c r="A444" s="1">
         <v>443</v>
       </c>
-      <c r="B444">
+      <c r="B444" s="1">
         <v>151257</v>
       </c>
-      <c r="C444">
+      <c r="C444" s="1">
         <v>12177</v>
       </c>
-      <c r="E444">
+      <c r="E444" s="1">
         <f t="shared" si="6"/>
         <v>12238.18249881482</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A445">
+      <c r="A445" s="1">
         <v>444</v>
       </c>
-      <c r="B445">
+      <c r="B445" s="1">
         <v>151539</v>
       </c>
-      <c r="C445">
+      <c r="C445" s="1">
         <v>12183</v>
       </c>
-      <c r="E445">
+      <c r="E445" s="1">
         <f t="shared" si="6"/>
         <v>12250.452537112453</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A446">
+      <c r="A446" s="1">
         <v>445</v>
       </c>
-      <c r="B446">
+      <c r="B446" s="1">
         <v>151912</v>
       </c>
-      <c r="C446">
+      <c r="C446" s="1">
         <v>12196</v>
       </c>
-      <c r="E446">
+      <c r="E446" s="1">
         <f t="shared" si="6"/>
         <v>12266.665863081098</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A447">
+      <c r="A447" s="1">
         <v>446</v>
       </c>
-      <c r="B447">
+      <c r="B447" s="1">
         <v>152243</v>
       </c>
-      <c r="C447">
+      <c r="C447" s="1">
         <v>12214</v>
       </c>
-      <c r="E447">
+      <c r="E447" s="1">
         <f t="shared" si="6"/>
         <v>12281.038164256453</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A448">
+      <c r="A448" s="1">
         <v>447</v>
       </c>
-      <c r="B448">
+      <c r="B448" s="1">
         <v>152473</v>
       </c>
-      <c r="C448">
+      <c r="C448" s="1">
         <v>12215</v>
       </c>
-      <c r="E448">
+      <c r="E448" s="1">
         <f t="shared" si="6"/>
         <v>12291.016460274815</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A449">
+      <c r="A449" s="1">
         <v>448</v>
       </c>
-      <c r="B449">
+      <c r="B449" s="1">
         <v>152861</v>
       </c>
-      <c r="C449">
+      <c r="C449" s="1">
         <v>12251</v>
       </c>
-      <c r="E449">
+      <c r="E449" s="1">
         <f t="shared" si="6"/>
         <v>12307.833664825939</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A450">
+      <c r="A450" s="1">
         <v>449</v>
       </c>
-      <c r="B450">
+      <c r="B450" s="1">
         <v>153366</v>
       </c>
-      <c r="C450">
+      <c r="C450" s="1">
         <v>12275</v>
       </c>
-      <c r="E450">
+      <c r="E450" s="1">
         <f t="shared" si="6"/>
         <v>12329.692527051446</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A451">
+      <c r="A451" s="1">
         <v>450</v>
       </c>
-      <c r="B451">
+      <c r="B451" s="1">
         <v>153791</v>
       </c>
-      <c r="C451">
+      <c r="C451" s="1">
         <v>12286</v>
       </c>
-      <c r="E451">
+      <c r="E451" s="1">
         <f t="shared" ref="E451:E500" si="7">$H$2*POWER(B451,$H$3)</f>
         <v>12348.062843613181</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A452">
+      <c r="A452" s="1">
         <v>451</v>
       </c>
-      <c r="B452">
+      <c r="B452" s="1">
         <v>154110</v>
       </c>
-      <c r="C452">
+      <c r="C452" s="1">
         <v>12294</v>
       </c>
-      <c r="E452">
+      <c r="E452" s="1">
         <f t="shared" si="7"/>
         <v>12361.835982818789</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A453">
+      <c r="A453" s="1">
         <v>452</v>
       </c>
-      <c r="B453">
+      <c r="B453" s="1">
         <v>154464</v>
       </c>
-      <c r="C453">
+      <c r="C453" s="1">
         <v>12320</v>
       </c>
-      <c r="E453">
+      <c r="E453" s="1">
         <f t="shared" si="7"/>
         <v>12377.104872071903</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A454">
+      <c r="A454" s="1">
         <v>453</v>
       </c>
-      <c r="B454">
+      <c r="B454" s="1">
         <v>154793</v>
       </c>
-      <c r="C454">
+      <c r="C454" s="1">
         <v>12331</v>
       </c>
-      <c r="E454">
+      <c r="E454" s="1">
         <f t="shared" si="7"/>
         <v>12391.280961876062</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A455">
+      <c r="A455" s="1">
         <v>454</v>
       </c>
-      <c r="B455">
+      <c r="B455" s="1">
         <v>155248</v>
       </c>
-      <c r="C455">
+      <c r="C455" s="1">
         <v>12339</v>
       </c>
-      <c r="E455">
+      <c r="E455" s="1">
         <f t="shared" si="7"/>
         <v>12410.863275133999</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A456">
+      <c r="A456" s="1">
         <v>455</v>
       </c>
-      <c r="B456">
+      <c r="B456" s="1">
         <v>155637</v>
       </c>
-      <c r="C456">
+      <c r="C456" s="1">
         <v>12351</v>
       </c>
-      <c r="E456">
+      <c r="E456" s="1">
         <f t="shared" si="7"/>
         <v>12427.584062123748</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A457">
+      <c r="A457" s="1">
         <v>456</v>
       </c>
-      <c r="B457">
+      <c r="B457" s="1">
         <v>155845</v>
       </c>
-      <c r="C457">
+      <c r="C457" s="1">
         <v>12355</v>
       </c>
-      <c r="E457">
+      <c r="E457" s="1">
         <f t="shared" si="7"/>
         <v>12436.516817913009</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A458">
+      <c r="A458" s="1">
         <v>457</v>
       </c>
-      <c r="B458">
+      <c r="B458" s="1">
         <v>156226</v>
       </c>
-      <c r="C458">
+      <c r="C458" s="1">
         <v>12370</v>
       </c>
-      <c r="E458">
+      <c r="E458" s="1">
         <f t="shared" si="7"/>
         <v>12452.864948616774</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A459">
+      <c r="A459" s="1">
         <v>458</v>
       </c>
-      <c r="B459">
+      <c r="B459" s="1">
         <v>156593</v>
       </c>
-      <c r="C459">
+      <c r="C459" s="1">
         <v>12381</v>
       </c>
-      <c r="E459">
+      <c r="E459" s="1">
         <f t="shared" si="7"/>
         <v>12468.594952791213</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A460">
+      <c r="A460" s="1">
         <v>459</v>
       </c>
-      <c r="B460">
+      <c r="B460" s="1">
         <v>156959</v>
       </c>
-      <c r="C460">
+      <c r="C460" s="1">
         <v>12387</v>
       </c>
-      <c r="E460">
+      <c r="E460" s="1">
         <f t="shared" si="7"/>
         <v>12484.265142620356</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A461">
+      <c r="A461" s="1">
         <v>460</v>
       </c>
-      <c r="B461">
+      <c r="B461" s="1">
         <v>157295</v>
       </c>
-      <c r="C461">
+      <c r="C461" s="1">
         <v>12408</v>
       </c>
-      <c r="E461">
+      <c r="E461" s="1">
         <f t="shared" si="7"/>
         <v>12498.636034646615</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A462">
+      <c r="A462" s="1">
         <v>461</v>
       </c>
-      <c r="B462">
+      <c r="B462" s="1">
         <v>157607</v>
       </c>
-      <c r="C462">
+      <c r="C462" s="1">
         <v>12439</v>
       </c>
-      <c r="E462">
+      <c r="E462" s="1">
         <f t="shared" si="7"/>
         <v>12511.967740648524</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A463">
+      <c r="A463" s="1">
         <v>462</v>
       </c>
-      <c r="B463">
+      <c r="B463" s="1">
         <v>157914</v>
       </c>
-      <c r="C463">
+      <c r="C463" s="1">
         <v>12443</v>
       </c>
-      <c r="E463">
+      <c r="E463" s="1">
         <f t="shared" si="7"/>
         <v>12525.073901402036</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A464">
+      <c r="A464" s="1">
         <v>463</v>
       </c>
-      <c r="B464">
+      <c r="B464" s="1">
         <v>158080</v>
       </c>
-      <c r="C464">
+      <c r="C464" s="1">
         <v>12451</v>
       </c>
-      <c r="E464">
+      <c r="E464" s="1">
         <f t="shared" si="7"/>
         <v>12532.155716908095</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A465">
+      <c r="A465" s="1">
         <v>464</v>
       </c>
-      <c r="B465">
+      <c r="B465" s="1">
         <v>158327</v>
       </c>
-      <c r="C465">
+      <c r="C465" s="1">
         <v>12465</v>
       </c>
-      <c r="E465">
+      <c r="E465" s="1">
         <f t="shared" si="7"/>
         <v>12542.686760780196</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A466">
+      <c r="A466" s="1">
         <v>465</v>
       </c>
-      <c r="B466">
+      <c r="B466" s="1">
         <v>158537</v>
       </c>
-      <c r="C466">
+      <c r="C466" s="1">
         <v>12477</v>
       </c>
-      <c r="E466">
+      <c r="E466" s="1">
         <f t="shared" si="7"/>
         <v>12551.634311431844</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A467">
+      <c r="A467" s="1">
         <v>466</v>
       </c>
-      <c r="B467">
+      <c r="B467" s="1">
         <v>158846</v>
       </c>
-      <c r="C467">
+      <c r="C467" s="1">
         <v>12488</v>
       </c>
-      <c r="E467">
+      <c r="E467" s="1">
         <f t="shared" si="7"/>
         <v>12564.790043008299</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A468">
+      <c r="A468" s="1">
         <v>467</v>
       </c>
-      <c r="B468">
+      <c r="B468" s="1">
         <v>159069</v>
       </c>
-      <c r="C468">
+      <c r="C468" s="1">
         <v>12492</v>
       </c>
-      <c r="E468">
+      <c r="E468" s="1">
         <f t="shared" si="7"/>
         <v>12574.276964910989</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A469">
+      <c r="A469" s="1">
         <v>468</v>
       </c>
-      <c r="B469">
+      <c r="B469" s="1">
         <v>159355</v>
       </c>
-      <c r="C469">
+      <c r="C469" s="1">
         <v>12503</v>
       </c>
-      <c r="E469">
+      <c r="E469" s="1">
         <f t="shared" si="7"/>
         <v>12586.435059707628</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A470">
+      <c r="A470" s="1">
         <v>469</v>
       </c>
-      <c r="B470">
+      <c r="B470" s="1">
         <v>159695</v>
       </c>
-      <c r="C470">
+      <c r="C470" s="1">
         <v>12510</v>
       </c>
-      <c r="E470">
+      <c r="E470" s="1">
         <f t="shared" si="7"/>
         <v>12600.87563049812</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A471">
+      <c r="A471" s="1">
         <v>470</v>
       </c>
-      <c r="B471">
+      <c r="B471" s="1">
         <v>159842</v>
       </c>
-      <c r="C471">
+      <c r="C471" s="1">
         <v>12530</v>
       </c>
-      <c r="E471">
+      <c r="E471" s="1">
         <f t="shared" si="7"/>
         <v>12607.114655148353</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A472">
+      <c r="A472" s="1">
         <v>471</v>
       </c>
-      <c r="B472">
+      <c r="B472" s="1">
         <v>160339</v>
       </c>
-      <c r="C472">
+      <c r="C472" s="1">
         <v>12546</v>
       </c>
-      <c r="E472">
+      <c r="E472" s="1">
         <f t="shared" si="7"/>
         <v>12628.188893549235</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A473">
+      <c r="A473" s="1">
         <v>472</v>
       </c>
-      <c r="B473">
+      <c r="B473" s="1">
         <v>160822</v>
       </c>
-      <c r="C473">
+      <c r="C473" s="1">
         <v>12568</v>
       </c>
-      <c r="E473">
+      <c r="E473" s="1">
         <f t="shared" si="7"/>
         <v>12648.640594622804</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A474">
+      <c r="A474" s="1">
         <v>473</v>
       </c>
-      <c r="B474">
+      <c r="B474" s="1">
         <v>160983</v>
       </c>
-      <c r="C474">
+      <c r="C474" s="1">
         <v>12580</v>
       </c>
-      <c r="E474">
+      <c r="E474" s="1">
         <f t="shared" si="7"/>
         <v>12655.451520434273</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A475">
+      <c r="A475" s="1">
         <v>474</v>
       </c>
-      <c r="B475">
+      <c r="B475" s="1">
         <v>161185</v>
       </c>
-      <c r="C475">
+      <c r="C475" s="1">
         <v>12586</v>
       </c>
-      <c r="E475">
+      <c r="E475" s="1">
         <f t="shared" si="7"/>
         <v>12663.992456063526</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A476">
+      <c r="A476" s="1">
         <v>475</v>
       </c>
-      <c r="B476">
+      <c r="B476" s="1">
         <v>161482</v>
       </c>
-      <c r="C476">
+      <c r="C476" s="1">
         <v>12599</v>
       </c>
-      <c r="E476">
+      <c r="E476" s="1">
         <f t="shared" si="7"/>
         <v>12676.541193065397</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A477">
+      <c r="A477" s="1">
         <v>476</v>
       </c>
-      <c r="B477">
+      <c r="B477" s="1">
         <v>161704</v>
       </c>
-      <c r="C477">
+      <c r="C477" s="1">
         <v>12609</v>
       </c>
-      <c r="E477">
+      <c r="E477" s="1">
         <f t="shared" si="7"/>
         <v>12685.914094578049</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A478">
+      <c r="A478" s="1">
         <v>477</v>
       </c>
-      <c r="B478">
+      <c r="B478" s="1">
         <v>161958</v>
       </c>
-      <c r="C478">
+      <c r="C478" s="1">
         <v>12627</v>
       </c>
-      <c r="E478">
+      <c r="E478" s="1">
         <f t="shared" si="7"/>
         <v>12696.630755863163</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A479">
+      <c r="A479" s="1">
         <v>478</v>
       </c>
-      <c r="B479">
+      <c r="B479" s="1">
         <v>162246</v>
       </c>
-      <c r="C479">
+      <c r="C479" s="1">
         <v>12643</v>
       </c>
-      <c r="E479">
+      <c r="E479" s="1">
         <f t="shared" si="7"/>
         <v>12708.772541727263</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A480">
+      <c r="A480" s="1">
         <v>479</v>
       </c>
-      <c r="B480">
+      <c r="B480" s="1">
         <v>162640</v>
       </c>
-      <c r="C480">
+      <c r="C480" s="1">
         <v>12672</v>
       </c>
-      <c r="E480">
+      <c r="E480" s="1">
         <f t="shared" si="7"/>
         <v>12725.36706201474</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A481">
+      <c r="A481" s="1">
         <v>480</v>
       </c>
-      <c r="B481">
+      <c r="B481" s="1">
         <v>162822</v>
       </c>
-      <c r="C481">
+      <c r="C481" s="1">
         <v>12680</v>
       </c>
-      <c r="E481">
+      <c r="E481" s="1">
         <f t="shared" si="7"/>
         <v>12733.026279456573</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A482">
+      <c r="A482" s="1">
         <v>481</v>
       </c>
-      <c r="B482">
+      <c r="B482" s="1">
         <v>163179</v>
       </c>
-      <c r="C482">
+      <c r="C482" s="1">
         <v>12693</v>
       </c>
-      <c r="E482">
+      <c r="E482" s="1">
         <f t="shared" si="7"/>
         <v>12748.038649377877</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A483">
+      <c r="A483" s="1">
         <v>482</v>
       </c>
-      <c r="B483">
+      <c r="B483" s="1">
         <v>163695</v>
       </c>
-      <c r="C483">
+      <c r="C483" s="1">
         <v>12724</v>
       </c>
-      <c r="E483">
+      <c r="E483" s="1">
         <f t="shared" si="7"/>
         <v>12769.71041116468</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A484">
+      <c r="A484" s="1">
         <v>483</v>
       </c>
-      <c r="B484">
+      <c r="B484" s="1">
         <v>163886</v>
       </c>
-      <c r="C484">
+      <c r="C484" s="1">
         <v>12736</v>
       </c>
-      <c r="E484">
+      <c r="E484" s="1">
         <f t="shared" si="7"/>
         <v>12777.724317677108</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A485">
+      <c r="A485" s="1">
         <v>484</v>
       </c>
-      <c r="B485">
+      <c r="B485" s="1">
         <v>164099</v>
       </c>
-      <c r="C485">
+      <c r="C485" s="1">
         <v>12751</v>
       </c>
-      <c r="E485">
+      <c r="E485" s="1">
         <f t="shared" si="7"/>
         <v>12786.656204544484</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A486">
+      <c r="A486" s="1">
         <v>485</v>
       </c>
-      <c r="B486">
+      <c r="B486" s="1">
         <v>164365</v>
       </c>
-      <c r="C486">
+      <c r="C486" s="1">
         <v>12767</v>
       </c>
-      <c r="E486">
+      <c r="E486" s="1">
         <f t="shared" si="7"/>
         <v>12797.80306193354</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A487">
+      <c r="A487" s="1">
         <v>486</v>
       </c>
-      <c r="B487">
+      <c r="B487" s="1">
         <v>164674</v>
       </c>
-      <c r="C487">
+      <c r="C487" s="1">
         <v>12780</v>
       </c>
-      <c r="E487">
+      <c r="E487" s="1">
         <f t="shared" si="7"/>
         <v>12810.741396103784</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A488">
+      <c r="A488" s="1">
         <v>487</v>
       </c>
-      <c r="B488">
+      <c r="B488" s="1">
         <v>165397</v>
       </c>
-      <c r="C488">
+      <c r="C488" s="1">
         <v>12828</v>
       </c>
-      <c r="E488">
+      <c r="E488" s="1">
         <f t="shared" si="7"/>
         <v>12840.970832957199</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A489">
+      <c r="A489" s="1">
         <v>488</v>
       </c>
-      <c r="B489">
+      <c r="B489" s="1">
         <v>165715</v>
       </c>
-      <c r="C489">
+      <c r="C489" s="1">
         <v>12838</v>
       </c>
-      <c r="E489">
+      <c r="E489" s="1">
         <f t="shared" si="7"/>
         <v>12854.247433268401</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A490">
+      <c r="A490" s="1">
         <v>489</v>
       </c>
-      <c r="B490">
+      <c r="B490" s="1">
         <v>166003</v>
       </c>
-      <c r="C490">
+      <c r="C490" s="1">
         <v>12841</v>
       </c>
-      <c r="E490">
+      <c r="E490" s="1">
         <f t="shared" si="7"/>
         <v>12866.261370490964</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A491">
+      <c r="A491" s="1">
         <v>490</v>
       </c>
-      <c r="B491">
+      <c r="B491" s="1">
         <v>166326</v>
       </c>
-      <c r="C491">
+      <c r="C491" s="1">
         <v>12857</v>
       </c>
-      <c r="E491">
+      <c r="E491" s="1">
         <f t="shared" si="7"/>
         <v>12879.72388457407</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A492">
+      <c r="A492" s="1">
         <v>491</v>
       </c>
-      <c r="B492">
+      <c r="B492" s="1">
         <v>166683</v>
       </c>
-      <c r="C492">
+      <c r="C492" s="1">
         <v>12866</v>
       </c>
-      <c r="E492">
+      <c r="E492" s="1">
         <f t="shared" si="7"/>
         <v>12894.589460623047</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A493">
+      <c r="A493" s="1">
         <v>492</v>
       </c>
-      <c r="B493">
+      <c r="B493" s="1">
         <v>166847</v>
       </c>
-      <c r="C493">
+      <c r="C493" s="1">
         <v>12869</v>
       </c>
-      <c r="E493">
+      <c r="E493" s="1">
         <f t="shared" si="7"/>
         <v>12901.413533619552</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A494">
+      <c r="A494" s="1">
         <v>493</v>
       </c>
-      <c r="B494">
+      <c r="B494" s="1">
         <v>167230</v>
       </c>
-      <c r="C494">
+      <c r="C494" s="1">
         <v>12869</v>
       </c>
-      <c r="E494">
+      <c r="E494" s="1">
         <f t="shared" si="7"/>
         <v>12917.338181895651</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A495">
+      <c r="A495" s="1">
         <v>494</v>
       </c>
-      <c r="B495">
+      <c r="B495" s="1">
         <v>167757</v>
       </c>
-      <c r="C495">
+      <c r="C495" s="1">
         <v>12869</v>
       </c>
-      <c r="E495">
+      <c r="E495" s="1">
         <f t="shared" si="7"/>
         <v>12939.22264775013</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A496">
+      <c r="A496" s="1">
         <v>495</v>
       </c>
-      <c r="B496">
+      <c r="B496" s="1">
         <v>168274</v>
       </c>
-      <c r="C496">
+      <c r="C496" s="1">
         <v>12892</v>
       </c>
-      <c r="E496">
+      <c r="E496" s="1">
         <f t="shared" si="7"/>
         <v>12960.661006347458</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A497">
+      <c r="A497" s="1">
         <v>496</v>
       </c>
-      <c r="B497">
+      <c r="B497" s="1">
         <v>168464</v>
       </c>
-      <c r="C497">
+      <c r="C497" s="1">
         <v>12898</v>
       </c>
-      <c r="E497">
+      <c r="E497" s="1">
         <f t="shared" si="7"/>
         <v>12968.532058366944</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A498">
+      <c r="A498" s="1">
         <v>497</v>
       </c>
-      <c r="B498">
+      <c r="B498" s="1">
         <v>168762</v>
       </c>
-      <c r="C498">
+      <c r="C498" s="1">
         <v>12926</v>
       </c>
-      <c r="E498">
+      <c r="E498" s="1">
         <f t="shared" si="7"/>
         <v>12980.868926025116</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A499">
+      <c r="A499" s="1">
         <v>498</v>
       </c>
-      <c r="B499">
+      <c r="B499" s="1">
         <v>169255</v>
       </c>
-      <c r="C499">
+      <c r="C499" s="1">
         <v>12946</v>
       </c>
-      <c r="E499">
+      <c r="E499" s="1">
         <f t="shared" si="7"/>
         <v>13001.256499807929</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A500">
+      <c r="A500" s="1">
         <v>499</v>
       </c>
-      <c r="B500">
+      <c r="B500" s="1">
         <v>169496</v>
       </c>
-      <c r="C500">
+      <c r="C500" s="1">
         <v>12954</v>
       </c>
-      <c r="E500">
+      <c r="E500" s="1">
         <f t="shared" si="7"/>
         <v>13011.212854640478</v>
       </c>
